--- a/features by category in biobank.xlsx
+++ b/features by category in biobank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiha\Documents\GitHub\Final-Project-Endo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiha\Documents\GitHub\ML-Endo-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DA0C84-AED5-4284-B46E-C61AC0D7F0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0D4901-6EE0-4404-9720-8D512C160570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="348" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>probably male=1 female=0</t>
   </si>
@@ -118,6 +118,117 @@
   </si>
   <si>
     <t>Age at first live birth</t>
+  </si>
+  <si>
+    <t>Currently suffering from problems relating to mood, anxiety and emotions</t>
+  </si>
+  <si>
+    <t>Ever been offered/sought treatment for anxiety</t>
+  </si>
+  <si>
+    <t>Extent affected by problems relating to mood, anxiety and emotions</t>
+  </si>
+  <si>
+    <t>Recent worrying too much about different things</t>
+  </si>
+  <si>
+    <t>Recent trouble relaxing</t>
+  </si>
+  <si>
+    <t>Recent restlessness</t>
+  </si>
+  <si>
+    <t>Recent easy annoyance or irritability</t>
+  </si>
+  <si>
+    <t>Mental health conditions ever diagnosed by a professional</t>
+  </si>
+  <si>
+    <t>Recent feelings or nervousness or anxiety</t>
+  </si>
+  <si>
+    <t>Depression in past six months</t>
+  </si>
+  <si>
+    <t>Depression possibly related to childbirth</t>
+  </si>
+  <si>
+    <t>Ever been offered/sought treatment for depression</t>
+  </si>
+  <si>
+    <t>Seen a psychiatrist for nerves, anxiety, tension or depression</t>
+  </si>
+  <si>
+    <t>Seen doctor (GP) for nerves, anxiety, tension or depression</t>
+  </si>
+  <si>
+    <t>Age at first episode of depression</t>
+  </si>
+  <si>
+    <t>Age at last episode of depression</t>
+  </si>
+  <si>
+    <t>Ever had prolonged feelings of sadness or depression</t>
+  </si>
+  <si>
+    <t>Feelings of tiredness during worst episode of depression</t>
+  </si>
+  <si>
+    <t>Recent feelings of depression</t>
+  </si>
+  <si>
+    <t>Date G43 first reported (migraine)</t>
+  </si>
+  <si>
+    <t>Ever had migraine</t>
+  </si>
+  <si>
+    <t>Date G44 first reported (other headache syndromes)</t>
+  </si>
+  <si>
+    <t>Persistent or recurrent tiredness, weariness or fatigue that has lasted for at least 6 months</t>
+  </si>
+  <si>
+    <t>Recent feelings of tiredness or low energy</t>
+  </si>
+  <si>
+    <t>Currently suffering from mild fatigue</t>
+  </si>
+  <si>
+    <t>Currently suffering from severe fatigue</t>
+  </si>
+  <si>
+    <t>Currently suffering from back pain</t>
+  </si>
+  <si>
+    <t>Hip pain in last three months and rating of pain</t>
+  </si>
+  <si>
+    <t>Back pain in last three months and rating of pain</t>
+  </si>
+  <si>
+    <t>Haemoglobin concentration</t>
+  </si>
+  <si>
+    <t>Haematocrit percentage</t>
+  </si>
+  <si>
+    <t>Red blood cell (erythrocyte) count</t>
+  </si>
+  <si>
+    <t>Oestradiol</t>
+  </si>
+  <si>
+    <t>Date D50 first reported (iron deficiency anaemia)</t>
+  </si>
+  <si>
+    <t>Date D51 first reported (vitamin b12 deficiency anaemia)</t>
+  </si>
+  <si>
+    <t>Date D52 first reported (folate deficiency anaemia)</t>
+  </si>
+  <si>
+    <t>Date D59 first reported (acquired haemolytic anaemia)</t>
   </si>
 </sst>
 </file>
@@ -449,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,9 +573,14 @@
     <col min="6" max="6" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="91.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="47.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -489,8 +605,32 @@
       <c r="O1" s="2">
         <v>132156</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="2">
+        <v>28726</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="2">
+        <v>120044</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>131052</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>30020</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -515,8 +655,35 @@
       <c r="O2" s="2">
         <v>132157</v>
       </c>
+      <c r="R2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="2">
+        <v>21062</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="2">
+        <v>20445</v>
+      </c>
+      <c r="X2" s="2">
+        <v>29035</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>120016</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>30030</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -544,8 +711,32 @@
       <c r="O3" s="2">
         <v>132150</v>
       </c>
+      <c r="R3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="2">
+        <v>28728</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="2">
+        <v>21063</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>131054</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>30010</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -570,8 +761,26 @@
       <c r="O4" s="2">
         <v>21050</v>
       </c>
+      <c r="R4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="2">
+        <v>20520</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4">
+        <v>2100</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>30800</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -596,8 +805,32 @@
       <c r="O5" s="2">
         <v>21026</v>
       </c>
+      <c r="R5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="2">
+        <v>20515</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="2">
+        <v>2090</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>120114</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>130622</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -622,8 +855,38 @@
       <c r="O6" s="2">
         <v>120017</v>
       </c>
+      <c r="R6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="2">
+        <v>20516</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="2">
+        <v>20433</v>
+      </c>
+      <c r="X6" s="2">
+        <v>29034</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>20519</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>29005</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>130624</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -648,8 +911,35 @@
       <c r="O7" s="2">
         <v>120043</v>
       </c>
+      <c r="R7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="2">
+        <v>20505</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" s="2">
+        <v>20434</v>
+      </c>
+      <c r="X7" s="2">
+        <v>29036</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>28696</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>130626</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="57.6" x14ac:dyDescent="0.3">
       <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
@@ -661,6 +951,83 @@
       </c>
       <c r="K8" s="2">
         <v>21047</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="2">
+        <v>29000</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="2">
+        <v>20446</v>
+      </c>
+      <c r="X8" s="2">
+        <v>29011</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>28699</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>130638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="R9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="2">
+        <v>29058</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" s="2">
+        <v>20449</v>
+      </c>
+      <c r="X9" s="2">
+        <v>29018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="V10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10" s="2">
+        <v>20510</v>
+      </c>
+      <c r="X10" s="2">
+        <v>29003</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>28639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AA11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>120028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AA12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>120026</v>
       </c>
     </row>
   </sheetData>
@@ -724,6 +1091,86 @@
     <hyperlink ref="K8" r:id="rId57" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21047" xr:uid="{7D7D39DB-1A96-442C-AB91-75654AA9E828}"/>
     <hyperlink ref="F8" r:id="rId58" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2754" xr:uid="{AAEA994F-2BE3-4218-82AE-FBA33B81D7DC}"/>
     <hyperlink ref="G8" r:id="rId59" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2754" xr:uid="{E60775E9-059A-487D-B06F-808D1AB11D8C}"/>
+    <hyperlink ref="R1" r:id="rId60" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28726" xr:uid="{DC257E30-2C38-4511-B2AC-C1A3CDFD6D4C}"/>
+    <hyperlink ref="S1" r:id="rId61" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28726" xr:uid="{119C3EB6-5B09-4E0E-AA80-7FED469659E2}"/>
+    <hyperlink ref="R2" r:id="rId62" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21062" xr:uid="{A234AAE3-D443-453B-BB0D-9F88EA50B457}"/>
+    <hyperlink ref="S2" r:id="rId63" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21062" xr:uid="{63DCBCF6-51A9-44B5-9548-F5B60B7BE122}"/>
+    <hyperlink ref="R3" r:id="rId64" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28728" xr:uid="{DA4871B9-56DB-4B0A-AB4A-8782181BD2F6}"/>
+    <hyperlink ref="S3" r:id="rId65" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28728" xr:uid="{0562B1DC-6C85-4652-90A1-FD9A16598031}"/>
+    <hyperlink ref="R4" r:id="rId66" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20520" xr:uid="{CE78C914-E378-43B8-9BB7-0667AD86000D}"/>
+    <hyperlink ref="S4" r:id="rId67" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20520" xr:uid="{1958FDEC-1014-4D65-9D7D-71D319B66653}"/>
+    <hyperlink ref="R5" r:id="rId68" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20515" xr:uid="{5B90D7F0-A93E-42AF-8EB9-9D6CF3220B27}"/>
+    <hyperlink ref="S5" r:id="rId69" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20515" xr:uid="{C6D33A06-1E2F-4F58-9746-26F83B021563}"/>
+    <hyperlink ref="R6" r:id="rId70" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20516" xr:uid="{082FABBF-9DA4-4BDE-B46B-80C385D8EF82}"/>
+    <hyperlink ref="S6" r:id="rId71" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20516" xr:uid="{C43244E2-7D40-4933-9F60-CD2FF8327863}"/>
+    <hyperlink ref="R7" r:id="rId72" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20505" xr:uid="{AB597911-003E-4E7F-9545-2711AA1ACB71}"/>
+    <hyperlink ref="S7" r:id="rId73" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20505" xr:uid="{C92FCF34-6D8A-49DE-96B7-393FE7EDA54A}"/>
+    <hyperlink ref="R8" r:id="rId74" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29000" xr:uid="{5784F313-6612-4C43-8211-715EB286AE0F}"/>
+    <hyperlink ref="S8" r:id="rId75" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29000" xr:uid="{732439A8-1324-4AC5-8DF8-66B4212C47F5}"/>
+    <hyperlink ref="R9" r:id="rId76" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29058" xr:uid="{E19024DC-9766-4DD3-94EA-60FD173DE5A9}"/>
+    <hyperlink ref="S9" r:id="rId77" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29058" xr:uid="{9C43C032-03C5-45AE-AC31-A40EBD07E1B6}"/>
+    <hyperlink ref="V1" r:id="rId78" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120044" xr:uid="{9BCF48C3-6B38-4B28-9A66-57C8E940D428}"/>
+    <hyperlink ref="W1" r:id="rId79" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120044" xr:uid="{92BABE86-D218-44ED-985F-4B0F264025C9}"/>
+    <hyperlink ref="V2" r:id="rId80" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20445" xr:uid="{863B56EF-787E-47A9-8B27-5BECB52E5E74}"/>
+    <hyperlink ref="W2" r:id="rId81" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20445" xr:uid="{EFAA4F4A-2B19-4E47-9E94-0F11EAC42106}"/>
+    <hyperlink ref="X2" r:id="rId82" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29035" xr:uid="{E4482FA7-3EAF-4AD5-8D16-772D9C405543}"/>
+    <hyperlink ref="V3" r:id="rId83" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21063" xr:uid="{CF1B0F65-4659-4EA1-A061-85468291762F}"/>
+    <hyperlink ref="W3" r:id="rId84" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21063" xr:uid="{5255CE1D-CB13-4D43-BB43-8944A90052BA}"/>
+    <hyperlink ref="V4" r:id="rId85" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2100" xr:uid="{F20B76A5-5B68-4404-9D9E-11F11D910F2B}"/>
+    <hyperlink ref="V5" r:id="rId86" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2090" xr:uid="{3FC4697A-A8C8-4D5F-8D72-08C03A36D7F7}"/>
+    <hyperlink ref="W5" r:id="rId87" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2090" xr:uid="{B5861648-59B3-4F12-A9C5-837A11F43D91}"/>
+    <hyperlink ref="V6" r:id="rId88" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20433" xr:uid="{39D3A359-9F74-41E7-99AD-39457D87C08B}"/>
+    <hyperlink ref="W6" r:id="rId89" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20433" xr:uid="{F65A2DE6-D36A-484E-B905-845D466827B1}"/>
+    <hyperlink ref="X6" r:id="rId90" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29034" xr:uid="{BC0220DD-A458-4FE4-9364-62ED3F1CF26D}"/>
+    <hyperlink ref="V7" r:id="rId91" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20434" xr:uid="{BA69209D-68E7-4021-9E0A-AC34DA96EDCD}"/>
+    <hyperlink ref="W7" r:id="rId92" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20434" xr:uid="{B49FDBAB-828C-460D-AE4A-3DC428B14F61}"/>
+    <hyperlink ref="X7" r:id="rId93" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29036" xr:uid="{D8CC54E8-A8D2-4F89-B9C2-7A3D60626D47}"/>
+    <hyperlink ref="V8" r:id="rId94" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20446" xr:uid="{4A605927-1C06-46E5-BB1E-FC5CF8F3ABFF}"/>
+    <hyperlink ref="W8" r:id="rId95" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20446" xr:uid="{5EFA5F7A-C91B-4188-B665-F0168BAF63F6}"/>
+    <hyperlink ref="X8" r:id="rId96" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29011" xr:uid="{8487FD54-1261-435B-AD8D-E9FBEE444E41}"/>
+    <hyperlink ref="V9" r:id="rId97" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20449" xr:uid="{396FB62D-AC0A-4E68-AC27-FF4761DAC0A2}"/>
+    <hyperlink ref="W9" r:id="rId98" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20449" xr:uid="{B83A01B5-B062-46F9-8A89-FDFACD85341E}"/>
+    <hyperlink ref="X9" r:id="rId99" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29018" xr:uid="{5FE91AD5-DE12-4E08-808B-73214C912987}"/>
+    <hyperlink ref="V10" r:id="rId100" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20510" xr:uid="{50AB1FE3-166F-4AC6-8CA1-EB2F6E19B5C2}"/>
+    <hyperlink ref="W10" r:id="rId101" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20510" xr:uid="{DD0681AA-6C39-4397-BA7B-5AEBB6D0C124}"/>
+    <hyperlink ref="X10" r:id="rId102" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29003" xr:uid="{F4B3B781-E3D2-490B-BA5E-82BF32194AE4}"/>
+    <hyperlink ref="AA1" r:id="rId103" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131052" xr:uid="{140913E0-380A-45BD-AE4D-57D2838D8430}"/>
+    <hyperlink ref="AB1" r:id="rId104" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131052" xr:uid="{850DC5B7-92DD-45BF-8F9E-C67F4E8C4D76}"/>
+    <hyperlink ref="AA2" r:id="rId105" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120016" xr:uid="{F2AB48CD-E932-4DAA-A83C-B555C72837F1}"/>
+    <hyperlink ref="AB2" r:id="rId106" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120016" xr:uid="{34DDBBF5-9618-4FB6-8D06-0D4B6D5B3C51}"/>
+    <hyperlink ref="AA3" r:id="rId107" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131054" xr:uid="{C56692FE-D4E9-4AC3-B125-6ED118135BDE}"/>
+    <hyperlink ref="AB3" r:id="rId108" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131054" xr:uid="{1FC91CAA-A744-44DA-9EBB-0FED79E5F593}"/>
+    <hyperlink ref="AA5" r:id="rId109" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120114" xr:uid="{55678790-3A10-4023-AE5E-1D558DD0379F}"/>
+    <hyperlink ref="AB5" r:id="rId110" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120114" xr:uid="{BEBCBECB-8BFB-4ED7-B23A-8D99805E956B}"/>
+    <hyperlink ref="AA6" r:id="rId111" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20519" xr:uid="{5F00FD39-D270-4718-9E84-1E910FC8A234}"/>
+    <hyperlink ref="AB6" r:id="rId112" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20519" xr:uid="{397A0FE7-F567-4D53-84DB-D581F8E88070}"/>
+    <hyperlink ref="AC6" r:id="rId113" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29005" xr:uid="{C5F68E8D-FAE0-43D8-8182-8921088BE750}"/>
+    <hyperlink ref="AA7" r:id="rId114" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28696" xr:uid="{AFA675C3-A058-47B1-836A-C27C478C6EC4}"/>
+    <hyperlink ref="AB7" r:id="rId115" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28696" xr:uid="{EBB3039C-709A-44CC-B3E0-D168C4CD48DF}"/>
+    <hyperlink ref="AA8" r:id="rId116" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28699" xr:uid="{274E6316-FB55-426A-8B1E-3E1830C8C13A}"/>
+    <hyperlink ref="AB8" r:id="rId117" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28699" xr:uid="{29519121-7C4D-4F4A-B448-95273FB54138}"/>
+    <hyperlink ref="AA10" r:id="rId118" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28639" xr:uid="{DA29BBF4-F8F1-43A1-8098-032B1D2FC241}"/>
+    <hyperlink ref="AB10" r:id="rId119" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28639" xr:uid="{BFEF9E6C-D261-4B49-B4FC-46E2A0761748}"/>
+    <hyperlink ref="AA11" r:id="rId120" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120028" xr:uid="{9797553C-2592-484C-9182-927377B0EDF0}"/>
+    <hyperlink ref="AB11" r:id="rId121" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120028" xr:uid="{DBB6FBCA-402A-4FBE-84F4-01D05F36DB98}"/>
+    <hyperlink ref="AA12" r:id="rId122" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120026" xr:uid="{E2AF47A5-D389-4377-ABBF-B12107018E5D}"/>
+    <hyperlink ref="AB12" r:id="rId123" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120026" xr:uid="{08175F23-67BA-476B-A27C-881142D4C8B5}"/>
+    <hyperlink ref="AE1" r:id="rId124" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30020" xr:uid="{5FB57860-D977-400F-B559-5176EA3367A8}"/>
+    <hyperlink ref="AF1" r:id="rId125" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30020" xr:uid="{86E922C6-89CB-4A8D-9C58-9AB9A1293F75}"/>
+    <hyperlink ref="AE2" r:id="rId126" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30030" xr:uid="{47898A1D-E5F2-4853-B83E-28F953B839EA}"/>
+    <hyperlink ref="AF2" r:id="rId127" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30030" xr:uid="{ACA03363-7207-4108-9DC1-88856B00CE3E}"/>
+    <hyperlink ref="AE3" r:id="rId128" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30010" xr:uid="{467EB25D-E396-4538-AB00-6CBEB0330A90}"/>
+    <hyperlink ref="AF3" r:id="rId129" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30010" xr:uid="{6D00317C-0361-41B0-95FA-675E399132A3}"/>
+    <hyperlink ref="AE4" r:id="rId130" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30800" xr:uid="{5893A843-00D7-426C-B717-BA6A33E7863F}"/>
+    <hyperlink ref="AF4" r:id="rId131" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30800" xr:uid="{B2CA50B1-6057-4D02-98D9-1CB5989EFC01}"/>
+    <hyperlink ref="AE5" r:id="rId132" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130622" xr:uid="{5CEC155A-F649-4326-9707-C8D4545B9AB7}"/>
+    <hyperlink ref="AF5" r:id="rId133" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130622" xr:uid="{85ACD6B6-EC1C-47A5-BF16-3317DA3B57EC}"/>
+    <hyperlink ref="AE6" r:id="rId134" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130624" xr:uid="{C7F38147-88F9-4D10-8780-7ACF8863B7D3}"/>
+    <hyperlink ref="AF6" r:id="rId135" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130624" xr:uid="{7D58981F-92C9-4DCE-BEC6-446CC06DB0CE}"/>
+    <hyperlink ref="AE7" r:id="rId136" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130626" xr:uid="{3B436D18-0201-435D-A130-9842D5EC52F7}"/>
+    <hyperlink ref="AF7" r:id="rId137" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130626" xr:uid="{2699C95C-1F41-4B14-9A0B-1B5DD797DE00}"/>
+    <hyperlink ref="AE8" r:id="rId138" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130638" xr:uid="{C1F69BB1-DFF8-4ED4-9201-DBF5B9267ED8}"/>
+    <hyperlink ref="AF8" r:id="rId139" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130638" xr:uid="{9CCAC264-F0E7-404C-B415-C7BD9C7D1F9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/features by category in biobank.xlsx
+++ b/features by category in biobank.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiha\Documents\GitHub\ML-Endo-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0D4901-6EE0-4404-9720-8D512C160570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA7F708-1498-4F19-9F65-B97C18A34FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
   <si>
     <t>probably male=1 female=0</t>
   </si>
@@ -229,6 +230,105 @@
   </si>
   <si>
     <t>Date D59 first reported (acquired haemolytic anaemia)</t>
+  </si>
+  <si>
+    <t>Date M32 first reported (systemic lupus erythematosus)</t>
+  </si>
+  <si>
+    <t>Ever had fibromyalgia syndrome</t>
+  </si>
+  <si>
+    <t>Date E34 first reported (other endocrine disorders)</t>
+  </si>
+  <si>
+    <t>Date E02 first reported (subclinical iodine-deficiency hypothyroidism)</t>
+  </si>
+  <si>
+    <t>Date E03 first reported (other hypothyroidism)</t>
+  </si>
+  <si>
+    <t>Medication for smoking cessation, constipation, heartburn, allergies (pilot)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Currently suffering from a new allergy or intolerance</t>
+  </si>
+  <si>
+    <t>Blood clot, DVT, bronchitis, emphysema, asthma, rhinitis, eczema, allergy diagnosed by doctor</t>
+  </si>
+  <si>
+    <t>Doctor diagnosed asthma</t>
+  </si>
+  <si>
+    <t>Date E28 first reported (ovarian dysfunction)</t>
+  </si>
+  <si>
+    <t>Type of cancer: ICD10</t>
+  </si>
+  <si>
+    <t>Ovarian cancer</t>
+  </si>
+  <si>
+    <t>c56</t>
+  </si>
+  <si>
+    <t>Breast cancer</t>
+  </si>
+  <si>
+    <t>uterine cancer</t>
+  </si>
+  <si>
+    <t>c55</t>
+  </si>
+  <si>
+    <t>c50</t>
+  </si>
+  <si>
+    <t>Date O26 first reported (maternal care for other conditions predominantly related to pregnancy) (complications)</t>
+  </si>
+  <si>
+    <t>Number of pregnancy terminations</t>
+  </si>
+  <si>
+    <t>Date O60 first reported (preterm delivery)</t>
+  </si>
+  <si>
+    <t>Date O03 first reported (spontaneous abortion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ever had stillbirth, spontaneous miscarriage or termination	</t>
+  </si>
+  <si>
+    <t>Number of spontaneous miscarriages</t>
+  </si>
+  <si>
+    <t>Date O44 first reported (placenta praevia)</t>
+  </si>
+  <si>
+    <t>Date O82 first reported (single delivery by caesarean section)</t>
+  </si>
+  <si>
+    <t>R17, R18</t>
+  </si>
+  <si>
+    <t>Operative procedures - OPCS4 (caesarean)</t>
+  </si>
+  <si>
+    <t>Date K58 first reported (irritable bowel syndrome)</t>
+  </si>
+  <si>
+    <t>cervical cancer</t>
+  </si>
+  <si>
+    <t>c53</t>
+  </si>
+  <si>
+    <t>melanoma</t>
+  </si>
+  <si>
+    <t>c43, c44</t>
   </si>
 </sst>
 </file>
@@ -560,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AM6" sqref="AL1:AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,9 +678,11 @@
     <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="44.21875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="78.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -629,8 +731,20 @@
       <c r="AF1" s="2">
         <v>30020</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AH1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>131894</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>40006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -682,8 +796,20 @@
       <c r="AF2" s="2">
         <v>30030</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AH2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>120009</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -735,8 +861,20 @@
       <c r="AF3" s="2">
         <v>30010</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AH3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>130746</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -779,8 +917,20 @@
       <c r="AF4" s="2">
         <v>30800</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AH4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>130694</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -829,8 +979,20 @@
       <c r="AF5" s="2">
         <v>130622</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AH5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>130696</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -885,8 +1047,23 @@
       <c r="AF6" s="2">
         <v>130624</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AH6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>10005</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -938,8 +1115,14 @@
       <c r="AF7" s="2">
         <v>130626</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AH7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>28711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
@@ -952,6 +1135,12 @@
       <c r="K8" s="2">
         <v>21047</v>
       </c>
+      <c r="N8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="2">
+        <v>132206</v>
+      </c>
       <c r="R8" s="2" t="s">
         <v>38</v>
       </c>
@@ -979,8 +1168,20 @@
       <c r="AF8" s="2">
         <v>130638</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AH8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="N9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="2">
+        <v>3849</v>
+      </c>
       <c r="R9" s="1" t="s">
         <v>39</v>
       </c>
@@ -996,8 +1197,20 @@
       <c r="X9" s="2">
         <v>29018</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AH9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>22127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="N10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="2">
+        <v>132244</v>
+      </c>
       <c r="V10" s="2" t="s">
         <v>49</v>
       </c>
@@ -1013,21 +1226,80 @@
       <c r="AB10" s="2">
         <v>28639</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AH10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>130736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="N11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="2">
+        <v>132168</v>
+      </c>
       <c r="AA11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="AB11" s="2">
         <v>120028</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AH11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>131638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="N12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2774</v>
+      </c>
       <c r="AA12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AB12" s="2">
         <v>120026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="N13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="N14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="2">
+        <v>132234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="N15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="2">
+        <v>132280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="N16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O16" s="2">
+        <v>41272</v>
+      </c>
+      <c r="P16" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1171,6 +1443,1015 @@
     <hyperlink ref="AF7" r:id="rId137" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130626" xr:uid="{2699C95C-1F41-4B14-9A0B-1B5DD797DE00}"/>
     <hyperlink ref="AE8" r:id="rId138" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130638" xr:uid="{C1F69BB1-DFF8-4ED4-9201-DBF5B9267ED8}"/>
     <hyperlink ref="AF8" r:id="rId139" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130638" xr:uid="{9CCAC264-F0E7-404C-B415-C7BD9C7D1F9B}"/>
+    <hyperlink ref="AH1" r:id="rId140" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131894" xr:uid="{171F1000-9BD9-4035-8CB5-0CD1B906A23D}"/>
+    <hyperlink ref="AI1" r:id="rId141" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131894" xr:uid="{F28A32D3-FC7B-4572-BA83-921BB5D7DB2A}"/>
+    <hyperlink ref="AH2" r:id="rId142" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120009" xr:uid="{7D15EB4B-BF2F-4BB0-A05F-0A559857CFF7}"/>
+    <hyperlink ref="AI2" r:id="rId143" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120009" xr:uid="{C8089543-B186-4299-872E-C288F08E9C18}"/>
+    <hyperlink ref="AH3" r:id="rId144" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130746" xr:uid="{C57496D3-B00B-494F-A3CA-7500802DFE54}"/>
+    <hyperlink ref="AI3" r:id="rId145" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130746" xr:uid="{62A36A08-CF33-4905-B65F-1941F527521B}"/>
+    <hyperlink ref="AH4" r:id="rId146" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130694" xr:uid="{78669376-6567-4F2C-A283-2056188BFF2B}"/>
+    <hyperlink ref="AI4" r:id="rId147" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130694" xr:uid="{83B5ABB3-75BD-47E9-8EEF-7FE2F1928AAD}"/>
+    <hyperlink ref="AH5" r:id="rId148" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130696" xr:uid="{54509137-E7DA-4A14-8B2C-07563948955E}"/>
+    <hyperlink ref="AI5" r:id="rId149" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130696" xr:uid="{DCF04727-0974-4427-B046-DAD15223C2B1}"/>
+    <hyperlink ref="AH6" r:id="rId150" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=10005" xr:uid="{F21A905A-CEBB-4064-A28A-5348E11F89E2}"/>
+    <hyperlink ref="AI6" r:id="rId151" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=10005" xr:uid="{0FFB5ED4-9C61-43C9-9190-A4F493C957C4}"/>
+    <hyperlink ref="AH7" r:id="rId152" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28711" xr:uid="{603B2423-F1BC-40C7-953C-4BBE054EE317}"/>
+    <hyperlink ref="AI7" r:id="rId153" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28711" xr:uid="{20F97611-831C-444F-9638-DBBD07143A72}"/>
+    <hyperlink ref="AH8" r:id="rId154" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=6152" xr:uid="{E11A0650-DB82-407F-89C3-B35EFBEBB4E2}"/>
+    <hyperlink ref="AI8" r:id="rId155" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=6152" xr:uid="{0B42A99D-1C91-4303-AA7C-D8FD9CA8E63B}"/>
+    <hyperlink ref="AH9" r:id="rId156" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=22127" xr:uid="{46553945-3F06-4E9D-9385-45ABBD65107A}"/>
+    <hyperlink ref="AI9" r:id="rId157" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=22127" xr:uid="{6D263B30-854C-42B6-999B-CF3B94C5AFE1}"/>
+    <hyperlink ref="AH10" r:id="rId158" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130736" xr:uid="{3462DACF-E768-4F07-8805-B3FDBF1299F0}"/>
+    <hyperlink ref="AI10" r:id="rId159" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130736" xr:uid="{7AA5ECC7-5D73-452C-811E-FF2761CE6221}"/>
+    <hyperlink ref="AL1" r:id="rId160" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=40006" xr:uid="{6B17347C-8EC9-4DC5-9F3F-40AB407A6340}"/>
+    <hyperlink ref="AM1" r:id="rId161" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=40006" xr:uid="{8C26817C-1079-403A-A005-D68EDED52BAA}"/>
+    <hyperlink ref="N8" r:id="rId162" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132206" xr:uid="{B27788B6-BB4A-4A02-8EF5-EC29CA32ED67}"/>
+    <hyperlink ref="O8" r:id="rId163" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132206" xr:uid="{9B92576B-205A-4853-8A4D-313CB9E90EB7}"/>
+    <hyperlink ref="N9" r:id="rId164" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3849" xr:uid="{317374EA-123B-4574-80BA-55B833F5F803}"/>
+    <hyperlink ref="O9" r:id="rId165" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3849" xr:uid="{9C10A6BC-BB4F-49BD-89B8-E576C81B46F7}"/>
+    <hyperlink ref="N10" r:id="rId166" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132244" xr:uid="{1A91ED59-79FB-458E-8F38-15572822F337}"/>
+    <hyperlink ref="O10" r:id="rId167" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132244" xr:uid="{54FDF491-7884-4922-8B2B-1A406FBCF119}"/>
+    <hyperlink ref="N11" r:id="rId168" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132168" xr:uid="{73218A3A-9B45-43CE-89D4-C94017C613E7}"/>
+    <hyperlink ref="O11" r:id="rId169" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132168" xr:uid="{F84DFAC1-DA3E-4551-B2B9-3DA6C4170FC0}"/>
+    <hyperlink ref="O12" r:id="rId170" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2774" xr:uid="{A04E2E2E-14BE-4007-A66C-649DC04CC50C}"/>
+    <hyperlink ref="N13" r:id="rId171" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3839" xr:uid="{358A3732-6945-4A08-A53F-5D837D9C1C6F}"/>
+    <hyperlink ref="O13" r:id="rId172" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3839" xr:uid="{D27943F7-3614-4A88-A514-EE70126B3665}"/>
+    <hyperlink ref="N14" r:id="rId173" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132234" xr:uid="{8CAB4F8E-ED19-4BD6-9FC7-8E250C6ECDD7}"/>
+    <hyperlink ref="O14" r:id="rId174" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132234" xr:uid="{5C936B1C-081C-4199-A915-7E8D4D705D1B}"/>
+    <hyperlink ref="N15" r:id="rId175" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132280" xr:uid="{AD682C33-C150-46E5-A339-3D1789F9A7F9}"/>
+    <hyperlink ref="O15" r:id="rId176" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132280" xr:uid="{43183754-4A08-4CC8-9776-CF9A16A115F1}"/>
+    <hyperlink ref="N16" r:id="rId177" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=41272" xr:uid="{1D5586A1-E5EA-4E32-B9EE-137089401DCB}"/>
+    <hyperlink ref="O16" r:id="rId178" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=41272" xr:uid="{E13E744D-EC23-45A8-A898-E313891DA0FA}"/>
+    <hyperlink ref="AH11" r:id="rId179" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131638" xr:uid="{F92FB2FA-AB3E-49C8-AB7D-63766EE4E20F}"/>
+    <hyperlink ref="AI11" r:id="rId180" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131638" xr:uid="{337BEBE3-DCBE-42E6-9FEE-DE7DBE781078}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29356CCF-2910-4F95-85DD-48185113FA8A}">
+  <dimension ref="A1:C95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="91.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2">
+        <v>21001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>21002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>132122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>132123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>26066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>26091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>26093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>23099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>21024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>21065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2">
+        <v>21047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>132156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2">
+        <v>132157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2">
+        <v>132150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2">
+        <v>21050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2">
+        <v>21026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2">
+        <v>120017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2">
+        <v>120043</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="2">
+        <v>132206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="2">
+        <v>132244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="2">
+        <v>132168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="2">
+        <v>132234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="2">
+        <v>132280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="2">
+        <v>41272</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2">
+        <v>28726</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="2">
+        <v>21062</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2">
+        <v>28728</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="2">
+        <v>20520</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="2">
+        <v>20515</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="2">
+        <v>20516</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="2">
+        <v>20505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="2">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="2">
+        <v>29058</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="2">
+        <v>120044</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="2">
+        <v>20445</v>
+      </c>
+      <c r="C50" s="2">
+        <v>29035</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="2">
+        <v>21063</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="2">
+        <v>20433</v>
+      </c>
+      <c r="C54" s="2">
+        <v>29034</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="2">
+        <v>20434</v>
+      </c>
+      <c r="C55" s="2">
+        <v>29036</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="2">
+        <v>20446</v>
+      </c>
+      <c r="C56" s="2">
+        <v>29011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="2">
+        <v>20449</v>
+      </c>
+      <c r="C57" s="2">
+        <v>29018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="2">
+        <v>20510</v>
+      </c>
+      <c r="C58" s="2">
+        <v>29003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="2">
+        <v>131052</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="2">
+        <v>120016</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="2">
+        <v>131054</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="2">
+        <v>120114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="2">
+        <v>20519</v>
+      </c>
+      <c r="C64" s="2">
+        <v>29005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="2">
+        <v>28696</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="2">
+        <v>28699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="2">
+        <v>28639</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="2">
+        <v>120028</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="2">
+        <v>120026</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="2">
+        <v>30020</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="2">
+        <v>30030</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="2">
+        <v>30010</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="2">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="2">
+        <v>130622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="2">
+        <v>130624</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="2">
+        <v>130626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="2">
+        <v>130638</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="2">
+        <v>131894</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="2">
+        <v>120009</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="2">
+        <v>130746</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="2">
+        <v>130694</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="2">
+        <v>130696</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="2">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="2">
+        <v>28711</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="1">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="2">
+        <v>22127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="2">
+        <v>130736</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="2">
+        <v>131638</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="2">
+        <v>40006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21022" xr:uid="{123D77C7-5E61-4D31-986C-89A2F36020C3}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21022" xr:uid="{560AFD1A-0F4E-42C5-92C0-442841A69F2E}"/>
+    <hyperlink ref="A1" r:id="rId3" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21001" xr:uid="{A0D244AC-C33B-4317-AAE4-6B32D277AA46}"/>
+    <hyperlink ref="B1" r:id="rId4" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21001" xr:uid="{7E09BE6C-51F2-483D-BC93-93F2593C9A1F}"/>
+    <hyperlink ref="A2" r:id="rId5" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21002" xr:uid="{33C3A855-EBAE-4404-976A-4BF46DBD6657}"/>
+    <hyperlink ref="B2" r:id="rId6" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21002" xr:uid="{5AD02B01-09FA-46C4-9AC7-4FC5218536C1}"/>
+    <hyperlink ref="A3" r:id="rId7" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=31" xr:uid="{43F14345-D2BA-4595-8077-8019344BF421}"/>
+    <hyperlink ref="B3" r:id="rId8" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=31" xr:uid="{6CD0ECAA-4503-4F7E-8370-2CB7213FF02F}"/>
+    <hyperlink ref="A4" r:id="rId9" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=34" xr:uid="{9444D9CE-5BFF-4FBF-8113-9B13C52EFBCE}"/>
+    <hyperlink ref="B4" r:id="rId10" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=34" xr:uid="{D54E6F16-DDD0-40AD-930C-2616BE805E2F}"/>
+    <hyperlink ref="A6" r:id="rId11" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132122" xr:uid="{D4304665-8677-4F40-952D-A34E53DFE2E6}"/>
+    <hyperlink ref="B6" r:id="rId12" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132122" xr:uid="{352E844A-03BD-4B3D-91D4-86FA47769779}"/>
+    <hyperlink ref="A7" r:id="rId13" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132123" xr:uid="{1AAFDBBA-D819-4B06-B5ED-916E767BAEE2}"/>
+    <hyperlink ref="B7" r:id="rId14" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132123" xr:uid="{720BBB0E-F848-48BE-89FC-9EA8B7FB751C}"/>
+    <hyperlink ref="B9" r:id="rId15" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3710" xr:uid="{71B81AD9-77D5-4F67-86C4-6478C161BAE6}"/>
+    <hyperlink ref="A10" r:id="rId16" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2714" xr:uid="{F0C8115E-C76E-4EEB-819B-915B355B3285}"/>
+    <hyperlink ref="B10" r:id="rId17" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2714" xr:uid="{B8102CBB-8CC3-40DC-A34E-88220AF286A9}"/>
+    <hyperlink ref="A11" r:id="rId18" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2734" xr:uid="{04CAC3EF-0EF2-4D82-A571-8512D4E7FBB3}"/>
+    <hyperlink ref="B11" r:id="rId19" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2734" xr:uid="{D3A59760-ADA3-464E-8A2F-07FEDC68C89C}"/>
+    <hyperlink ref="A8" r:id="rId20" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2784" xr:uid="{6A4B4D79-8D48-4176-8AAF-83D9553BF6B4}"/>
+    <hyperlink ref="B8" r:id="rId21" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2784" xr:uid="{ACA6B9E5-51A2-4A98-AC83-FD9E0CD22CB7}"/>
+    <hyperlink ref="A12" r:id="rId22" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2724" xr:uid="{CA8A6976-1C1E-44FC-8CD8-A15986D2EB5C}"/>
+    <hyperlink ref="B12" r:id="rId23" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2724" xr:uid="{268AD1AA-0046-41DD-99F3-9C400CE78175}"/>
+    <hyperlink ref="A13" r:id="rId24" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3591" xr:uid="{C58606C3-570A-41CD-B7ED-550FEA1BEF0B}"/>
+    <hyperlink ref="B13" r:id="rId25" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3591" xr:uid="{87242C1B-D639-4369-9B1E-0C130247FD89}"/>
+    <hyperlink ref="A9" r:id="rId26" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3710" xr:uid="{8553244F-FE36-4B19-AE0F-E79C696EA466}"/>
+    <hyperlink ref="A14" r:id="rId27" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3720" xr:uid="{7704CEC1-45D9-4CF3-8D4A-64C777FC7957}"/>
+    <hyperlink ref="B14" r:id="rId28" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3720" xr:uid="{CC92A77A-66FD-46EC-A557-71E73E12BD28}"/>
+    <hyperlink ref="A15" r:id="rId29" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2754" xr:uid="{44F9B28A-6A3C-48D4-A403-BEAD4D35E35A}"/>
+    <hyperlink ref="B15" r:id="rId30" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2754" xr:uid="{F7BFCC54-0A21-44FF-BC39-38EFB3838DEF}"/>
+    <hyperlink ref="A16" r:id="rId31" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26066" xr:uid="{BB640074-6C51-4DED-ABF1-CB5069E46E85}"/>
+    <hyperlink ref="B16" r:id="rId32" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26066" xr:uid="{0379DA17-E362-4D15-B427-0D5FDC1EF01D}"/>
+    <hyperlink ref="A17" r:id="rId33" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26091" xr:uid="{8576C0BA-D44B-4CE4-8410-90E727F5F5C3}"/>
+    <hyperlink ref="B17" r:id="rId34" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26091" xr:uid="{F198B3D6-96A5-42AA-A8DA-FEE0563EFD0F}"/>
+    <hyperlink ref="A18" r:id="rId35" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26093" xr:uid="{2A5C2846-82FE-4A57-8826-30876C49FFD1}"/>
+    <hyperlink ref="B18" r:id="rId36" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26093" xr:uid="{021F21F4-6EAC-49EE-80AC-9D35512C48E8}"/>
+    <hyperlink ref="A19" r:id="rId37" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=23099" xr:uid="{B528FE58-5C1F-4DFC-99CE-0A914E8E21A7}"/>
+    <hyperlink ref="B19" r:id="rId38" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=23099" xr:uid="{F27BED60-EDA5-4D5D-BADE-37348FB459EE}"/>
+    <hyperlink ref="B20" r:id="rId39" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21024" xr:uid="{0C850935-9A6A-4B8E-ABEC-C26534B28E1B}"/>
+    <hyperlink ref="A21" r:id="rId40" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21065" xr:uid="{DF692ECB-B1FD-4F6E-B37F-7A15A66998E6}"/>
+    <hyperlink ref="B21" r:id="rId41" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21065" xr:uid="{A4A868EE-4823-4312-8D4C-5B387EFAE17B}"/>
+    <hyperlink ref="A22" r:id="rId42" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21045" xr:uid="{1EBD9B98-B524-4FF9-B889-1A54EC84480D}"/>
+    <hyperlink ref="B22" r:id="rId43" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21045" xr:uid="{E29862A1-64CE-4004-A6CB-87648C4C2CB2}"/>
+    <hyperlink ref="A23" r:id="rId44" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21047" xr:uid="{B01483DE-0968-4910-8648-7B1E0AAD0E2A}"/>
+    <hyperlink ref="B23" r:id="rId45" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21047" xr:uid="{F06191B8-D30D-478A-B2BC-E534C5577D0A}"/>
+    <hyperlink ref="A24" r:id="rId46" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132156" xr:uid="{DA4D571C-3990-4172-8227-2E5792AFC029}"/>
+    <hyperlink ref="B24" r:id="rId47" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132156" xr:uid="{9A016686-FE1F-4006-9FC9-89ABF4F3FF8D}"/>
+    <hyperlink ref="A25" r:id="rId48" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132157" xr:uid="{BA109510-C645-41B3-BFF6-68D8178F2189}"/>
+    <hyperlink ref="B25" r:id="rId49" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132157" xr:uid="{D9709F94-35CB-453E-86EE-8DFC5FA7FB4F}"/>
+    <hyperlink ref="A26" r:id="rId50" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132150" xr:uid="{D45CC0D1-9F04-4A2F-9CC3-AD76C0F01997}"/>
+    <hyperlink ref="B26" r:id="rId51" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132150" xr:uid="{38A821A7-D493-4A1F-9F8D-22A2CC68F433}"/>
+    <hyperlink ref="A27" r:id="rId52" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21050" xr:uid="{F4420E4D-B4CB-4C6D-8B2C-C66A7AF29E80}"/>
+    <hyperlink ref="B27" r:id="rId53" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21050" xr:uid="{B9CE7DBF-7A4E-4F83-BA0E-9AEF6CC77A4A}"/>
+    <hyperlink ref="A28" r:id="rId54" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21026" xr:uid="{C7B6DF58-2415-4F5E-B213-54BE1C34AD24}"/>
+    <hyperlink ref="B28" r:id="rId55" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21026" xr:uid="{2276F3E8-C740-4A6D-AA4A-BEF42BA0CA5A}"/>
+    <hyperlink ref="A29" r:id="rId56" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120017" xr:uid="{61E131CC-5BBA-417D-A733-2F74589ADF56}"/>
+    <hyperlink ref="B29" r:id="rId57" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120017" xr:uid="{842C9D9B-D508-4601-BF30-9BF63ED5C3F5}"/>
+    <hyperlink ref="A30" r:id="rId58" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120043" xr:uid="{0A258ACE-CC62-4C9C-9CD2-22F0312AD4D8}"/>
+    <hyperlink ref="B30" r:id="rId59" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120043" xr:uid="{EA97FA77-45CD-4A0B-8C70-DDA221755BB0}"/>
+    <hyperlink ref="A31" r:id="rId60" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132206" xr:uid="{168D3C0D-97EC-4FEC-AB94-031A3B42F3EC}"/>
+    <hyperlink ref="B31" r:id="rId61" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132206" xr:uid="{4C7625D4-4485-4F51-944B-6A27F11E9E7F}"/>
+    <hyperlink ref="A32" r:id="rId62" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3849" xr:uid="{538B6398-5D4D-49B8-9FA8-BC98DF88B58E}"/>
+    <hyperlink ref="B32" r:id="rId63" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3849" xr:uid="{08E19E50-0BC6-430E-BE0A-94A484F0172D}"/>
+    <hyperlink ref="A33" r:id="rId64" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132244" xr:uid="{E5DD6511-7F68-47CC-BE3F-9CB10FA572AC}"/>
+    <hyperlink ref="B33" r:id="rId65" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132244" xr:uid="{8287C5C7-2E14-40BB-8DA5-21F8C863C1EE}"/>
+    <hyperlink ref="A34" r:id="rId66" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132168" xr:uid="{3EA236CB-1207-4178-B19D-AE4948672C2A}"/>
+    <hyperlink ref="B34" r:id="rId67" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132168" xr:uid="{68545CCA-6D50-427E-996B-00A97015AA3D}"/>
+    <hyperlink ref="B35" r:id="rId68" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2774" xr:uid="{E97498BD-39A4-4B04-9FE4-DCFF03B431DC}"/>
+    <hyperlink ref="A36" r:id="rId69" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3839" xr:uid="{80EA4E6C-C26C-47D7-82A7-A17BC35D9773}"/>
+    <hyperlink ref="B36" r:id="rId70" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3839" xr:uid="{5FD184FB-BDD9-4679-B7A1-160F46EB0B8A}"/>
+    <hyperlink ref="A37" r:id="rId71" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132234" xr:uid="{087B5E96-6738-4586-AFA7-D3B0DAF7CE48}"/>
+    <hyperlink ref="B37" r:id="rId72" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132234" xr:uid="{48E7AF6F-BD1D-4980-916F-BA8065CF3346}"/>
+    <hyperlink ref="A38" r:id="rId73" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132280" xr:uid="{0A2CA610-2F9A-48F7-AC03-98B6B8B40FDF}"/>
+    <hyperlink ref="B38" r:id="rId74" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132280" xr:uid="{935005CB-C158-4272-BABD-DC3AB94D8DDE}"/>
+    <hyperlink ref="A39" r:id="rId75" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=41272" xr:uid="{F51FF7BF-6E84-4188-8FEF-EA534B42D39E}"/>
+    <hyperlink ref="B39" r:id="rId76" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=41272" xr:uid="{76E53499-9EA7-4C4A-9221-A5D256983693}"/>
+    <hyperlink ref="A40" r:id="rId77" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28726" xr:uid="{4A0BA872-0C72-4D1F-83C8-B8C846D34B7A}"/>
+    <hyperlink ref="B40" r:id="rId78" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28726" xr:uid="{3A3409BE-0518-4FC5-9E38-46C6777EFCF7}"/>
+    <hyperlink ref="A41" r:id="rId79" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21062" xr:uid="{91689540-6501-467B-B7C9-B7261B5DE49C}"/>
+    <hyperlink ref="B41" r:id="rId80" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21062" xr:uid="{B1A72338-535E-47CE-98FD-E4E3BB4B336E}"/>
+    <hyperlink ref="A42" r:id="rId81" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28728" xr:uid="{0A3CFFD0-6632-4A95-9E4B-AD652D4813BF}"/>
+    <hyperlink ref="B42" r:id="rId82" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28728" xr:uid="{F196E371-72E8-4555-BCA2-66402D9E4990}"/>
+    <hyperlink ref="A43" r:id="rId83" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20520" xr:uid="{ABAE5200-27F6-4081-B89A-BE37CA9055FD}"/>
+    <hyperlink ref="B43" r:id="rId84" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20520" xr:uid="{B04236F2-D173-4159-BE54-40F0698B6431}"/>
+    <hyperlink ref="A44" r:id="rId85" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20515" xr:uid="{D387E5A0-10DD-41F3-9DF7-FE7FA547E2AE}"/>
+    <hyperlink ref="B44" r:id="rId86" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20515" xr:uid="{69C622FF-E0F3-41E5-B006-8726B857BD0E}"/>
+    <hyperlink ref="A45" r:id="rId87" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20516" xr:uid="{72817B3E-1BBA-417C-A5E1-3BCA2A236609}"/>
+    <hyperlink ref="B45" r:id="rId88" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20516" xr:uid="{504B559D-470A-41C6-8F34-1A90EB29974C}"/>
+    <hyperlink ref="A46" r:id="rId89" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20505" xr:uid="{AF692447-99A8-436F-AE76-40BEF8A555A5}"/>
+    <hyperlink ref="B46" r:id="rId90" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20505" xr:uid="{FBFCF62F-F661-457F-8354-E44332250464}"/>
+    <hyperlink ref="A47" r:id="rId91" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29000" xr:uid="{075651C9-9B2C-4FA7-AA2D-3FF2620EEB21}"/>
+    <hyperlink ref="B47" r:id="rId92" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29000" xr:uid="{2C6BBEDA-DB0C-4769-9474-688A38BF4006}"/>
+    <hyperlink ref="A48" r:id="rId93" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29058" xr:uid="{0D24FDBC-BD15-4B06-8EEC-AE338B138F00}"/>
+    <hyperlink ref="B48" r:id="rId94" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29058" xr:uid="{2BB36345-E7DF-4870-A398-CE9056E49B5D}"/>
+    <hyperlink ref="A49" r:id="rId95" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120044" xr:uid="{D4C5D7C8-7B0A-4DDD-8689-F6D547EF51E8}"/>
+    <hyperlink ref="B49" r:id="rId96" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120044" xr:uid="{EB990691-4A64-4014-AC55-7D32D22D1D9F}"/>
+    <hyperlink ref="A50" r:id="rId97" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20445" xr:uid="{1DC9B19A-F79F-4246-9F15-F6CC2E317B86}"/>
+    <hyperlink ref="B50" r:id="rId98" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20445" xr:uid="{BC9ECE5A-BC57-45B3-8C42-E049B76B737D}"/>
+    <hyperlink ref="C50" r:id="rId99" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29035" xr:uid="{876DF430-8388-48EA-8B72-9DED66DB902B}"/>
+    <hyperlink ref="A51" r:id="rId100" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21063" xr:uid="{086E3F3F-4B43-432E-9AD0-0B8F459206C5}"/>
+    <hyperlink ref="B51" r:id="rId101" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21063" xr:uid="{EFE88458-F80B-4E38-982E-7B8F28AC7F5D}"/>
+    <hyperlink ref="A52" r:id="rId102" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2100" xr:uid="{210A2AD8-E455-4520-99CB-FBF0427121A0}"/>
+    <hyperlink ref="A53" r:id="rId103" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2090" xr:uid="{DE0615B1-C715-465D-A2A9-8822A77C2896}"/>
+    <hyperlink ref="B53" r:id="rId104" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2090" xr:uid="{A5039F68-DEBE-4EC1-A660-21C59400B1E0}"/>
+    <hyperlink ref="A54" r:id="rId105" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20433" xr:uid="{FACC4927-159D-4B96-8F99-D060F7C6ABAE}"/>
+    <hyperlink ref="B54" r:id="rId106" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20433" xr:uid="{C2795190-9376-448C-85EE-E51B82690781}"/>
+    <hyperlink ref="C54" r:id="rId107" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29034" xr:uid="{BE59F5A8-1CE4-40A2-A526-6A831502234C}"/>
+    <hyperlink ref="A55" r:id="rId108" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20434" xr:uid="{D0585A90-E3F0-417B-908F-7AD0873D61CA}"/>
+    <hyperlink ref="B55" r:id="rId109" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20434" xr:uid="{6FAB6C8B-DD63-4888-BE6B-E11DAE44A82D}"/>
+    <hyperlink ref="C55" r:id="rId110" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29036" xr:uid="{84F86E8C-BA9D-464B-9210-7E0CC1B38FB4}"/>
+    <hyperlink ref="A56" r:id="rId111" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20446" xr:uid="{08CA4A32-1BA1-4479-99AF-91E562A08643}"/>
+    <hyperlink ref="B56" r:id="rId112" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20446" xr:uid="{D99A4497-663E-4910-8241-6D816FDBC1FA}"/>
+    <hyperlink ref="C56" r:id="rId113" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29011" xr:uid="{E4952E21-EADF-4EF4-A77A-48DC3BE10882}"/>
+    <hyperlink ref="A57" r:id="rId114" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20449" xr:uid="{C8184975-6576-465D-8C52-D7953E1792CA}"/>
+    <hyperlink ref="B57" r:id="rId115" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20449" xr:uid="{FEC429FA-017C-4C69-B335-6B38CC6546B9}"/>
+    <hyperlink ref="C57" r:id="rId116" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29018" xr:uid="{4A7525A1-A592-4525-8E12-FDC32F948765}"/>
+    <hyperlink ref="A58" r:id="rId117" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20510" xr:uid="{AC4BCF80-26B1-4F62-ADA7-CB470CC87E99}"/>
+    <hyperlink ref="B58" r:id="rId118" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20510" xr:uid="{17F193FA-DC02-4E56-AB8A-6945B88FF9CD}"/>
+    <hyperlink ref="C58" r:id="rId119" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29003" xr:uid="{82472F10-543B-4ACC-9021-D99A531729E3}"/>
+    <hyperlink ref="A59" r:id="rId120" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131052" xr:uid="{7658F4BD-FEC3-474B-B945-E4CD35AED4D6}"/>
+    <hyperlink ref="B59" r:id="rId121" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131052" xr:uid="{D6FBB833-77E7-4B93-A9EE-DDA4E2111292}"/>
+    <hyperlink ref="A60" r:id="rId122" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120016" xr:uid="{4278C3D7-809E-46FC-9FB7-59E95FC2BFAA}"/>
+    <hyperlink ref="B60" r:id="rId123" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120016" xr:uid="{3C09F288-7C7E-4A3A-B178-24AE4E476968}"/>
+    <hyperlink ref="A61" r:id="rId124" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131054" xr:uid="{4637503B-3576-4D65-A900-6451F4039B33}"/>
+    <hyperlink ref="B61" r:id="rId125" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131054" xr:uid="{0D8029CA-ECE5-4C76-85A4-CA7B18581843}"/>
+    <hyperlink ref="A63" r:id="rId126" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120114" xr:uid="{24FD523C-575F-4EA9-A80D-D437916460F0}"/>
+    <hyperlink ref="B63" r:id="rId127" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120114" xr:uid="{8275AD04-395F-4C0E-89DD-58248F4E3A67}"/>
+    <hyperlink ref="A64" r:id="rId128" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20519" xr:uid="{616BAEEF-81DE-4E21-8EB5-5B6007441164}"/>
+    <hyperlink ref="B64" r:id="rId129" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=20519" xr:uid="{0B2911C4-97D0-42F8-BD40-1CED0B03F46D}"/>
+    <hyperlink ref="C64" r:id="rId130" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=29005" xr:uid="{2AA7F8AA-2366-493F-B0EB-81D91C720E65}"/>
+    <hyperlink ref="A65" r:id="rId131" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28696" xr:uid="{F0A5FDEF-3158-43CE-9787-E733058EE5B0}"/>
+    <hyperlink ref="B65" r:id="rId132" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28696" xr:uid="{E4AD45BA-4FFD-4A4E-8C3B-8EC849A7BAE0}"/>
+    <hyperlink ref="A66" r:id="rId133" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28699" xr:uid="{CBAC0CCA-2A77-4147-863A-D62AAF39FA64}"/>
+    <hyperlink ref="B66" r:id="rId134" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28699" xr:uid="{5BBD3703-D61B-49D8-8768-9E98B11F24B5}"/>
+    <hyperlink ref="A68" r:id="rId135" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28639" xr:uid="{A6DF6565-64AB-47BA-B80E-BC2064DB426C}"/>
+    <hyperlink ref="B68" r:id="rId136" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28639" xr:uid="{564D9AD1-5BB6-4075-A552-246C76BC9348}"/>
+    <hyperlink ref="A69" r:id="rId137" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120028" xr:uid="{D4EAF78D-4FB8-4FA1-84F8-007E59F27DC3}"/>
+    <hyperlink ref="B69" r:id="rId138" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120028" xr:uid="{E5E6FF95-3C3E-4102-8E0F-904DC2CBC0A9}"/>
+    <hyperlink ref="A70" r:id="rId139" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120026" xr:uid="{D7528555-A43D-4EC1-98E8-9FEC1701FB53}"/>
+    <hyperlink ref="B70" r:id="rId140" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120026" xr:uid="{C2A26607-F9D0-4783-BC99-44A054246329}"/>
+    <hyperlink ref="A71" r:id="rId141" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30020" xr:uid="{187DA645-89D5-46C8-9BDF-05F10D1E3661}"/>
+    <hyperlink ref="B71" r:id="rId142" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30020" xr:uid="{714330C8-85FE-4A2C-8B8E-1BDDCEA6120C}"/>
+    <hyperlink ref="A72" r:id="rId143" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30030" xr:uid="{87C482AC-ECF9-4A2E-AD3F-31CE99494463}"/>
+    <hyperlink ref="B72" r:id="rId144" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30030" xr:uid="{914B800E-3ED1-4E54-94EE-ADEDE94F0E11}"/>
+    <hyperlink ref="A73" r:id="rId145" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30010" xr:uid="{D4B37956-8127-4577-B45C-C64F2388B439}"/>
+    <hyperlink ref="B73" r:id="rId146" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30010" xr:uid="{94B86D50-C2A1-4779-8561-015635FB270B}"/>
+    <hyperlink ref="A74" r:id="rId147" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30800" xr:uid="{D59BC1A2-CC8E-454A-8698-03E8712B7E5E}"/>
+    <hyperlink ref="B74" r:id="rId148" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30800" xr:uid="{B153B5F5-67DA-4B8D-89B8-575A7494F022}"/>
+    <hyperlink ref="A75" r:id="rId149" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130622" xr:uid="{10AF434A-5A5B-4B6D-A935-DDBC92756E44}"/>
+    <hyperlink ref="B75" r:id="rId150" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130622" xr:uid="{B47D91AE-BD21-477C-A81D-9447DD9FD1DB}"/>
+    <hyperlink ref="A76" r:id="rId151" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130624" xr:uid="{C2E82DC2-6E16-4193-8DA4-0302EEB80AFC}"/>
+    <hyperlink ref="B76" r:id="rId152" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130624" xr:uid="{D7503810-CAAA-4AF1-BB4D-222F96FD3C8C}"/>
+    <hyperlink ref="A77" r:id="rId153" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130626" xr:uid="{139AE52C-D29E-4766-A4DC-AB83CBE1897C}"/>
+    <hyperlink ref="B77" r:id="rId154" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130626" xr:uid="{B0B04637-014C-4162-BC4A-C7A25E776504}"/>
+    <hyperlink ref="A78" r:id="rId155" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130638" xr:uid="{9DDABD0F-9D8C-4FDC-B0D8-EFB35E2B0D18}"/>
+    <hyperlink ref="B78" r:id="rId156" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130638" xr:uid="{B8CCBABD-0384-4390-95FF-5A7F13C13C9D}"/>
+    <hyperlink ref="A79" r:id="rId157" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131894" xr:uid="{8AA43B9E-F0F9-44B8-A9CE-46DFA7B5E49B}"/>
+    <hyperlink ref="B79" r:id="rId158" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131894" xr:uid="{B87D9DAC-4591-4197-B919-559F23D5EB23}"/>
+    <hyperlink ref="A80" r:id="rId159" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120009" xr:uid="{AA33ACD2-81DB-439D-A709-718B1F73A658}"/>
+    <hyperlink ref="B80" r:id="rId160" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120009" xr:uid="{AE12DB66-32D6-40CC-833F-FD9632F2A308}"/>
+    <hyperlink ref="A81" r:id="rId161" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130746" xr:uid="{358135B3-750E-46EF-8299-6465B2CC98DB}"/>
+    <hyperlink ref="B81" r:id="rId162" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130746" xr:uid="{8CE019D3-B21E-4D21-8D8C-A0A934A63215}"/>
+    <hyperlink ref="A82" r:id="rId163" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130694" xr:uid="{CE5F1677-C1EE-4249-9D0A-C37F35EA43DC}"/>
+    <hyperlink ref="B82" r:id="rId164" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130694" xr:uid="{A50B1808-D999-4F7A-8088-A057F6BF6682}"/>
+    <hyperlink ref="A83" r:id="rId165" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130696" xr:uid="{76B519D9-FF32-437D-81E0-40A4EE412E1C}"/>
+    <hyperlink ref="B83" r:id="rId166" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130696" xr:uid="{0C170570-0324-425F-AA07-CD0246051273}"/>
+    <hyperlink ref="A84" r:id="rId167" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=10005" xr:uid="{AE8957B0-F1D7-415C-8169-B66C3945D916}"/>
+    <hyperlink ref="B84" r:id="rId168" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=10005" xr:uid="{1B8A52FF-371D-4FAC-A2F9-04F3D18FF260}"/>
+    <hyperlink ref="A85" r:id="rId169" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28711" xr:uid="{2690E836-988A-4372-B99B-7889D853892B}"/>
+    <hyperlink ref="B85" r:id="rId170" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28711" xr:uid="{5CDC7F4C-927A-4EFC-9C8E-6BE36004AC41}"/>
+    <hyperlink ref="A86" r:id="rId171" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=6152" xr:uid="{6EA82C35-A778-46A0-BE73-4660DABB0F2F}"/>
+    <hyperlink ref="B86" r:id="rId172" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=6152" xr:uid="{DACE0D11-344F-48BD-B301-3DDDCFAD0BE7}"/>
+    <hyperlink ref="A87" r:id="rId173" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=22127" xr:uid="{34AA4CDC-D9E3-4B91-A899-14EBAEBE6974}"/>
+    <hyperlink ref="B87" r:id="rId174" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=22127" xr:uid="{925EBE6E-77EB-4704-9234-51BA92842181}"/>
+    <hyperlink ref="A88" r:id="rId175" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130736" xr:uid="{DC01FAD8-D67B-4DF9-BA9E-08F8660B86C5}"/>
+    <hyperlink ref="B88" r:id="rId176" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130736" xr:uid="{7FDEB191-1124-44DF-95B9-414DC80306F3}"/>
+    <hyperlink ref="A89" r:id="rId177" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131638" xr:uid="{F9EECC1E-0765-4464-BCF3-46ECE8F826A0}"/>
+    <hyperlink ref="B89" r:id="rId178" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131638" xr:uid="{7C6C5364-30C4-41AB-A53F-A093B05B2C4B}"/>
+    <hyperlink ref="A90" r:id="rId179" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=40006" xr:uid="{0900A83A-4B0C-437B-B424-032BC21BA878}"/>
+    <hyperlink ref="B90" r:id="rId180" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=40006" xr:uid="{1DC74B42-3285-4706-9133-6712CC80EC3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/features by category in biobank.xlsx
+++ b/features by category in biobank.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiha\Documents\GitHub\ML-Endo-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA7F708-1498-4F19-9F65-B97C18A34FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FF5FE9-2A4F-4775-AA5A-4F86FC018967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="112">
   <si>
     <t>probably male=1 female=0</t>
   </si>
@@ -329,13 +330,46 @@
   </si>
   <si>
     <t>c43, c44</t>
+  </si>
+  <si>
+    <t>Beef intake</t>
+  </si>
+  <si>
+    <t>Processed meat intake</t>
+  </si>
+  <si>
+    <t>Salad / raw vegetable intake</t>
+  </si>
+  <si>
+    <t>Fresh fruit intake</t>
+  </si>
+  <si>
+    <t>Cheese intake</t>
+  </si>
+  <si>
+    <t>Genetic sex</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>Lactose</t>
+  </si>
+  <si>
+    <t>Vitamin C</t>
+  </si>
+  <si>
+    <t>Vitamin D</t>
+  </si>
+  <si>
+    <t>Vitamin E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +384,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -373,12 +413,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -660,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AL1:AM6"/>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="K18" sqref="J14:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,7 +1033,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1123,6 +1164,12 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2">
+        <v>22001</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1176,6 +1223,12 @@
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="J9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1369</v>
+      </c>
       <c r="N9" s="2" t="s">
         <v>87</v>
       </c>
@@ -1205,6 +1258,12 @@
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="J10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1349</v>
+      </c>
       <c r="N10" s="2" t="s">
         <v>88</v>
       </c>
@@ -1233,7 +1292,13 @@
         <v>130736</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1299</v>
+      </c>
       <c r="N11" s="2" t="s">
         <v>89</v>
       </c>
@@ -1254,6 +1319,12 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="J12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1309</v>
+      </c>
       <c r="N12" s="2" t="s">
         <v>90</v>
       </c>
@@ -1268,6 +1339,12 @@
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="J13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1408</v>
+      </c>
       <c r="N13" s="1" t="s">
         <v>91</v>
       </c>
@@ -1276,6 +1353,12 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="J14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="2">
+        <v>26008</v>
+      </c>
       <c r="N14" s="2" t="s">
         <v>92</v>
       </c>
@@ -1284,6 +1367,12 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="J15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="2">
+        <v>26048</v>
+      </c>
       <c r="N15" s="2" t="s">
         <v>93</v>
       </c>
@@ -1292,6 +1381,12 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="J16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="2">
+        <v>26023</v>
+      </c>
       <c r="N16" s="1" t="s">
         <v>95</v>
       </c>
@@ -1300,6 +1395,22 @@
       </c>
       <c r="P16" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="2">
+        <v>26029</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="2">
+        <v>26028</v>
       </c>
     </row>
   </sheetData>
@@ -1484,17 +1595,39 @@
     <hyperlink ref="O16" r:id="rId178" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=41272" xr:uid="{E13E744D-EC23-45A8-A898-E313891DA0FA}"/>
     <hyperlink ref="AH11" r:id="rId179" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131638" xr:uid="{F92FB2FA-AB3E-49C8-AB7D-63766EE4E20F}"/>
     <hyperlink ref="AI11" r:id="rId180" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131638" xr:uid="{337BEBE3-DCBE-42E6-9FEE-DE7DBE781078}"/>
+    <hyperlink ref="J9" r:id="rId181" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1369" xr:uid="{EA035E9D-25F1-449D-8C1C-1CC4E38C497A}"/>
+    <hyperlink ref="K9" r:id="rId182" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1369" xr:uid="{CD4C2264-9965-4D57-9262-1EBC4DD794C2}"/>
+    <hyperlink ref="J10" r:id="rId183" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1349" xr:uid="{A130DE26-2443-484D-9B46-0A5F9BE1D740}"/>
+    <hyperlink ref="K10" r:id="rId184" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1349" xr:uid="{1BF3265E-6730-4E67-8CAF-407EEF8B6882}"/>
+    <hyperlink ref="J11" r:id="rId185" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1299" xr:uid="{67148BFD-FB67-466A-A702-2E54B62F8F11}"/>
+    <hyperlink ref="K11" r:id="rId186" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1299" xr:uid="{075AD395-5578-4138-BF74-949CFF1AB16B}"/>
+    <hyperlink ref="J12" r:id="rId187" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1309" xr:uid="{B148974D-7EA6-4BF9-A189-247BE3487270}"/>
+    <hyperlink ref="K12" r:id="rId188" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1309" xr:uid="{E7A30DA0-8DE2-4C5A-976E-0DBC9B1D2A50}"/>
+    <hyperlink ref="J13" r:id="rId189" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1408" xr:uid="{B064E3AA-CE63-449C-955C-496160B32285}"/>
+    <hyperlink ref="K13" r:id="rId190" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1408" xr:uid="{05B3BC17-0E32-44E1-B189-DCF3C8ACE9F1}"/>
+    <hyperlink ref="B8" r:id="rId191" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=22001" xr:uid="{A663D0E9-1DF7-45B6-BBBA-A2EAB185A4A8}"/>
+    <hyperlink ref="J14" r:id="rId192" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26008" xr:uid="{B675B429-858B-4AAB-BE31-787B8180F675}"/>
+    <hyperlink ref="K14" r:id="rId193" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26008" xr:uid="{A4706256-4985-4CF5-B8A1-2CEED8976C73}"/>
+    <hyperlink ref="J15" r:id="rId194" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26048" xr:uid="{47AFC5E2-13A9-459B-8964-A405DA2FB461}"/>
+    <hyperlink ref="K15" r:id="rId195" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26048" xr:uid="{BA1D5D25-5C50-4ABC-AF41-B6D303234BDD}"/>
+    <hyperlink ref="J16" r:id="rId196" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26023" xr:uid="{B977808C-F71F-4A9B-A17B-9B04A2617679}"/>
+    <hyperlink ref="J17" r:id="rId197" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26029" xr:uid="{E35AA0E0-D143-4341-B903-56B816738F8F}"/>
+    <hyperlink ref="J18" r:id="rId198" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26028" xr:uid="{B350F116-DDEA-4505-B7E1-8AB46CA9AC8C}"/>
+    <hyperlink ref="K16" r:id="rId199" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26023" xr:uid="{9EDCEBF4-35DB-4C11-9F10-7FE56B055CCD}"/>
+    <hyperlink ref="K17" r:id="rId200" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26029" xr:uid="{09FE1840-0CEB-48E1-9123-6FB5861EC633}"/>
+    <hyperlink ref="K18" r:id="rId201" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26028" xr:uid="{6C405A23-2330-410B-98EF-5D7EC6D2A21C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId202"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29356CCF-2910-4F95-85DD-48185113FA8A}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1502,7 +1635,7 @@
     <col min="1" max="1" width="91.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1566,7 +1699,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1598,7 +1731,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1670,7 +1803,7 @@
         <v>21065</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1678,7 +1811,7 @@
         <v>21045</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1726,7 +1859,7 @@
         <v>21026</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1734,7 +1867,7 @@
         <v>120017</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1742,7 +1875,7 @@
         <v>120043</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -1782,7 +1915,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
@@ -1806,7 +1939,7 @@
         <v>132280</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>95</v>
       </c>
@@ -1833,7 +1966,7 @@
         <v>21062</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -1841,7 +1974,7 @@
         <v>28728</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -1857,7 +1990,7 @@
         <v>20515</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
@@ -1881,7 +2014,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
@@ -1889,7 +2022,7 @@
         <v>29058</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -1916,7 +2049,7 @@
         <v>21063</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
@@ -1924,7 +2057,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>44</v>
       </c>
@@ -1932,7 +2065,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
@@ -1995,7 +2128,7 @@
         <v>131052</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>51</v>
       </c>
@@ -2011,7 +2144,7 @@
         <v>131054</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>53</v>
       </c>
@@ -2070,7 +2203,7 @@
         <v>120026</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>60</v>
       </c>
@@ -2102,7 +2235,7 @@
         <v>30800</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>64</v>
       </c>
@@ -2118,7 +2251,7 @@
         <v>130624</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>66</v>
       </c>
@@ -2134,7 +2267,7 @@
         <v>130638</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>68</v>
       </c>
@@ -2158,7 +2291,7 @@
         <v>130746</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2174,7 +2307,7 @@
         <v>130696</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2182,7 +2315,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>75</v>
       </c>
@@ -2214,7 +2347,7 @@
         <v>130736</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
@@ -2268,6 +2401,86 @@
       </c>
       <c r="B95" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="2">
+        <v>26008</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="2">
+        <v>26048</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="2">
+        <v>26023</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="2">
+        <v>26029</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="2">
+        <v>26028</v>
       </c>
     </row>
   </sheetData>
@@ -2452,6 +2665,26 @@
     <hyperlink ref="B89" r:id="rId178" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131638" xr:uid="{7C6C5364-30C4-41AB-A53F-A093B05B2C4B}"/>
     <hyperlink ref="A90" r:id="rId179" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=40006" xr:uid="{0900A83A-4B0C-437B-B424-032BC21BA878}"/>
     <hyperlink ref="B90" r:id="rId180" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=40006" xr:uid="{1DC74B42-3285-4706-9133-6712CC80EC3D}"/>
+    <hyperlink ref="A96" r:id="rId181" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1369" xr:uid="{906B13B7-A89A-40F0-936A-821ACF2DF5A3}"/>
+    <hyperlink ref="B96" r:id="rId182" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1369" xr:uid="{B986659C-6CC9-40E3-B455-E75275097660}"/>
+    <hyperlink ref="A97" r:id="rId183" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1349" xr:uid="{1B1970F9-5099-4A7A-BE44-3842C4837D79}"/>
+    <hyperlink ref="B97" r:id="rId184" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1349" xr:uid="{AAF4D7A6-2992-4E7C-81B6-9F4A60C92F98}"/>
+    <hyperlink ref="A98" r:id="rId185" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1299" xr:uid="{5381CAAE-B67A-4645-B719-0AD3C4532B1B}"/>
+    <hyperlink ref="B98" r:id="rId186" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1299" xr:uid="{C80702FD-BA1D-469D-AD37-610137A2D9F1}"/>
+    <hyperlink ref="A99" r:id="rId187" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1309" xr:uid="{7AE8274C-6B0D-43F0-8A26-3EEF45914C27}"/>
+    <hyperlink ref="B99" r:id="rId188" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1309" xr:uid="{160B9966-DB5C-4FA8-B954-3A99F40DBD04}"/>
+    <hyperlink ref="A100" r:id="rId189" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1408" xr:uid="{8B4553BD-7B98-4C65-B56A-7A80F57380D3}"/>
+    <hyperlink ref="B100" r:id="rId190" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1408" xr:uid="{DF2933BF-3598-4C87-9F42-7C2A2E9BA0C5}"/>
+    <hyperlink ref="A101" r:id="rId191" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26008" xr:uid="{32D44107-7845-4601-BC1F-E1DA8833C244}"/>
+    <hyperlink ref="B101" r:id="rId192" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26008" xr:uid="{4EC75652-0EFF-436A-85B5-98C1F636B1D2}"/>
+    <hyperlink ref="A102" r:id="rId193" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26048" xr:uid="{BBEF85AE-B73B-478B-8914-CE4D5C1646C8}"/>
+    <hyperlink ref="B102" r:id="rId194" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26048" xr:uid="{94C1115B-CBF0-4F32-AE07-BE4EEFF128E8}"/>
+    <hyperlink ref="A103" r:id="rId195" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26023" xr:uid="{B034A6D3-2661-4727-BF46-60F5E4B60197}"/>
+    <hyperlink ref="A104" r:id="rId196" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26029" xr:uid="{5C2BA9EA-8C10-4817-9505-8ECC81FC7A75}"/>
+    <hyperlink ref="A105" r:id="rId197" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26028" xr:uid="{34176B0E-759D-463A-86C0-5B674122B67A}"/>
+    <hyperlink ref="B103" r:id="rId198" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26023" xr:uid="{5733424C-F6BA-418D-9BAF-F6A7B60A3F5D}"/>
+    <hyperlink ref="B104" r:id="rId199" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26029" xr:uid="{BD38727A-0DEB-4B7C-BD27-23DF5551E541}"/>
+    <hyperlink ref="B105" r:id="rId200" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26028" xr:uid="{FF3B6480-F799-463A-AE6B-C8AF7C503D6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/features by category in biobank.xlsx
+++ b/features by category in biobank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiha\Documents\GitHub\ML-Endo-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FF5FE9-2A4F-4775-AA5A-4F86FC018967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E0FA96-E7F2-4EE6-8185-38CC7BAA5D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="K18" sqref="J14:K18"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,7 +1626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29356CCF-2910-4F95-85DD-48185113FA8A}">
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>

--- a/features by category in biobank.xlsx
+++ b/features by category in biobank.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiha\Documents\GitHub\ML-Endo-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E0FA96-E7F2-4EE6-8185-38CC7BAA5D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B17060-29D6-4100-88BD-6011E5496C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="112">
   <si>
     <t>probably male=1 female=0</t>
   </si>
@@ -703,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1624,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29356CCF-2910-4F95-85DD-48185113FA8A}">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2179,307 +2178,267 @@
         <v>28699</v>
       </c>
     </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="2">
+        <v>28639</v>
+      </c>
+    </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B68" s="2">
-        <v>28639</v>
+        <v>120028</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B69" s="2">
-        <v>120028</v>
+        <v>120026</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>59</v>
+      <c r="A70" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B70" s="2">
-        <v>120026</v>
+        <v>30020</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>60</v>
+      <c r="A71" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B71" s="2">
-        <v>30020</v>
+        <v>30030</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B72" s="2">
-        <v>30030</v>
+        <v>30010</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B73" s="2">
-        <v>30010</v>
+        <v>30800</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>63</v>
+      <c r="A74" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B74" s="2">
-        <v>30800</v>
+        <v>130622</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>64</v>
+      <c r="A75" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B75" s="2">
-        <v>130622</v>
+        <v>130624</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>65</v>
+      <c r="A76" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B76" s="2">
-        <v>130624</v>
+        <v>130626</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>66</v>
+      <c r="A77" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B77" s="2">
-        <v>130626</v>
+        <v>130638</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>67</v>
+      <c r="A78" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B78" s="2">
-        <v>130638</v>
+        <v>131894</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>68</v>
+      <c r="A79" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B79" s="2">
-        <v>131894</v>
+        <v>120009</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B80" s="2">
-        <v>120009</v>
+        <v>130746</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>70</v>
+      <c r="A81" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B81" s="2">
-        <v>130746</v>
+        <v>130694</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>71</v>
+      <c r="A82" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B82" s="2">
-        <v>130694</v>
+        <v>130696</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>72</v>
+      <c r="A83" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B83" s="2">
-        <v>130696</v>
+        <v>10005</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B84" s="2">
-        <v>10005</v>
+        <v>28711</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" s="2">
-        <v>28711</v>
+      <c r="A85" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="1">
+        <v>6152</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B86" s="1">
-        <v>6152</v>
+        <v>77</v>
+      </c>
+      <c r="B86" s="2">
+        <v>22127</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B87" s="2">
-        <v>22127</v>
+        <v>130736</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>78</v>
+      <c r="A88" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B88" s="2">
-        <v>130736</v>
+        <v>131638</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>96</v>
+      <c r="A89" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B89" s="2">
-        <v>131638</v>
+        <v>40006</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2">
-        <v>40006</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>80</v>
-      </c>
-      <c r="B91" t="s">
-        <v>81</v>
+      <c r="A91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1349</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92" t="s">
-        <v>84</v>
+      <c r="A92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1299</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>82</v>
-      </c>
-      <c r="B93" t="s">
-        <v>85</v>
+      <c r="A93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1309</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" t="s">
-        <v>98</v>
+      <c r="A94" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1408</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" t="s">
-        <v>100</v>
+      <c r="A95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="2">
+        <v>26008</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2">
-        <v>1369</v>
+        <v>26048</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2">
-        <v>1349</v>
+        <v>26023</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>103</v>
+      <c r="A98" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B98" s="2">
-        <v>1299</v>
+        <v>26029</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" s="2">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101" s="2">
-        <v>26008</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" s="2">
-        <v>26048</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B103" s="2">
-        <v>26023</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B104" s="2">
-        <v>26029</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105" s="2">
         <v>26028</v>
       </c>
     </row>
@@ -2619,72 +2578,72 @@
     <hyperlink ref="B65" r:id="rId132" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28696" xr:uid="{E4AD45BA-4FFD-4A4E-8C3B-8EC849A7BAE0}"/>
     <hyperlink ref="A66" r:id="rId133" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28699" xr:uid="{CBAC0CCA-2A77-4147-863A-D62AAF39FA64}"/>
     <hyperlink ref="B66" r:id="rId134" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28699" xr:uid="{5BBD3703-D61B-49D8-8768-9E98B11F24B5}"/>
-    <hyperlink ref="A68" r:id="rId135" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28639" xr:uid="{A6DF6565-64AB-47BA-B80E-BC2064DB426C}"/>
-    <hyperlink ref="B68" r:id="rId136" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28639" xr:uid="{564D9AD1-5BB6-4075-A552-246C76BC9348}"/>
-    <hyperlink ref="A69" r:id="rId137" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120028" xr:uid="{D4EAF78D-4FB8-4FA1-84F8-007E59F27DC3}"/>
-    <hyperlink ref="B69" r:id="rId138" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120028" xr:uid="{E5E6FF95-3C3E-4102-8E0F-904DC2CBC0A9}"/>
-    <hyperlink ref="A70" r:id="rId139" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120026" xr:uid="{D7528555-A43D-4EC1-98E8-9FEC1701FB53}"/>
-    <hyperlink ref="B70" r:id="rId140" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120026" xr:uid="{C2A26607-F9D0-4783-BC99-44A054246329}"/>
-    <hyperlink ref="A71" r:id="rId141" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30020" xr:uid="{187DA645-89D5-46C8-9BDF-05F10D1E3661}"/>
-    <hyperlink ref="B71" r:id="rId142" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30020" xr:uid="{714330C8-85FE-4A2C-8B8E-1BDDCEA6120C}"/>
-    <hyperlink ref="A72" r:id="rId143" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30030" xr:uid="{87C482AC-ECF9-4A2E-AD3F-31CE99494463}"/>
-    <hyperlink ref="B72" r:id="rId144" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30030" xr:uid="{914B800E-3ED1-4E54-94EE-ADEDE94F0E11}"/>
-    <hyperlink ref="A73" r:id="rId145" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30010" xr:uid="{D4B37956-8127-4577-B45C-C64F2388B439}"/>
-    <hyperlink ref="B73" r:id="rId146" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30010" xr:uid="{94B86D50-C2A1-4779-8561-015635FB270B}"/>
-    <hyperlink ref="A74" r:id="rId147" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30800" xr:uid="{D59BC1A2-CC8E-454A-8698-03E8712B7E5E}"/>
-    <hyperlink ref="B74" r:id="rId148" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30800" xr:uid="{B153B5F5-67DA-4B8D-89B8-575A7494F022}"/>
-    <hyperlink ref="A75" r:id="rId149" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130622" xr:uid="{10AF434A-5A5B-4B6D-A935-DDBC92756E44}"/>
-    <hyperlink ref="B75" r:id="rId150" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130622" xr:uid="{B47D91AE-BD21-477C-A81D-9447DD9FD1DB}"/>
-    <hyperlink ref="A76" r:id="rId151" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130624" xr:uid="{C2E82DC2-6E16-4193-8DA4-0302EEB80AFC}"/>
-    <hyperlink ref="B76" r:id="rId152" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130624" xr:uid="{D7503810-CAAA-4AF1-BB4D-222F96FD3C8C}"/>
-    <hyperlink ref="A77" r:id="rId153" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130626" xr:uid="{139AE52C-D29E-4766-A4DC-AB83CBE1897C}"/>
-    <hyperlink ref="B77" r:id="rId154" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130626" xr:uid="{B0B04637-014C-4162-BC4A-C7A25E776504}"/>
-    <hyperlink ref="A78" r:id="rId155" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130638" xr:uid="{9DDABD0F-9D8C-4FDC-B0D8-EFB35E2B0D18}"/>
-    <hyperlink ref="B78" r:id="rId156" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130638" xr:uid="{B8CCBABD-0384-4390-95FF-5A7F13C13C9D}"/>
-    <hyperlink ref="A79" r:id="rId157" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131894" xr:uid="{8AA43B9E-F0F9-44B8-A9CE-46DFA7B5E49B}"/>
-    <hyperlink ref="B79" r:id="rId158" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131894" xr:uid="{B87D9DAC-4591-4197-B919-559F23D5EB23}"/>
-    <hyperlink ref="A80" r:id="rId159" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120009" xr:uid="{AA33ACD2-81DB-439D-A709-718B1F73A658}"/>
-    <hyperlink ref="B80" r:id="rId160" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120009" xr:uid="{AE12DB66-32D6-40CC-833F-FD9632F2A308}"/>
-    <hyperlink ref="A81" r:id="rId161" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130746" xr:uid="{358135B3-750E-46EF-8299-6465B2CC98DB}"/>
-    <hyperlink ref="B81" r:id="rId162" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130746" xr:uid="{8CE019D3-B21E-4D21-8D8C-A0A934A63215}"/>
-    <hyperlink ref="A82" r:id="rId163" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130694" xr:uid="{CE5F1677-C1EE-4249-9D0A-C37F35EA43DC}"/>
-    <hyperlink ref="B82" r:id="rId164" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130694" xr:uid="{A50B1808-D999-4F7A-8088-A057F6BF6682}"/>
-    <hyperlink ref="A83" r:id="rId165" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130696" xr:uid="{76B519D9-FF32-437D-81E0-40A4EE412E1C}"/>
-    <hyperlink ref="B83" r:id="rId166" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130696" xr:uid="{0C170570-0324-425F-AA07-CD0246051273}"/>
-    <hyperlink ref="A84" r:id="rId167" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=10005" xr:uid="{AE8957B0-F1D7-415C-8169-B66C3945D916}"/>
-    <hyperlink ref="B84" r:id="rId168" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=10005" xr:uid="{1B8A52FF-371D-4FAC-A2F9-04F3D18FF260}"/>
-    <hyperlink ref="A85" r:id="rId169" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28711" xr:uid="{2690E836-988A-4372-B99B-7889D853892B}"/>
-    <hyperlink ref="B85" r:id="rId170" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28711" xr:uid="{5CDC7F4C-927A-4EFC-9C8E-6BE36004AC41}"/>
-    <hyperlink ref="A86" r:id="rId171" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=6152" xr:uid="{6EA82C35-A778-46A0-BE73-4660DABB0F2F}"/>
-    <hyperlink ref="B86" r:id="rId172" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=6152" xr:uid="{DACE0D11-344F-48BD-B301-3DDDCFAD0BE7}"/>
-    <hyperlink ref="A87" r:id="rId173" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=22127" xr:uid="{34AA4CDC-D9E3-4B91-A899-14EBAEBE6974}"/>
-    <hyperlink ref="B87" r:id="rId174" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=22127" xr:uid="{925EBE6E-77EB-4704-9234-51BA92842181}"/>
-    <hyperlink ref="A88" r:id="rId175" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130736" xr:uid="{DC01FAD8-D67B-4DF9-BA9E-08F8660B86C5}"/>
-    <hyperlink ref="B88" r:id="rId176" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130736" xr:uid="{7FDEB191-1124-44DF-95B9-414DC80306F3}"/>
-    <hyperlink ref="A89" r:id="rId177" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131638" xr:uid="{F9EECC1E-0765-4464-BCF3-46ECE8F826A0}"/>
-    <hyperlink ref="B89" r:id="rId178" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131638" xr:uid="{7C6C5364-30C4-41AB-A53F-A093B05B2C4B}"/>
-    <hyperlink ref="A90" r:id="rId179" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=40006" xr:uid="{0900A83A-4B0C-437B-B424-032BC21BA878}"/>
-    <hyperlink ref="B90" r:id="rId180" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=40006" xr:uid="{1DC74B42-3285-4706-9133-6712CC80EC3D}"/>
-    <hyperlink ref="A96" r:id="rId181" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1369" xr:uid="{906B13B7-A89A-40F0-936A-821ACF2DF5A3}"/>
-    <hyperlink ref="B96" r:id="rId182" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1369" xr:uid="{B986659C-6CC9-40E3-B455-E75275097660}"/>
-    <hyperlink ref="A97" r:id="rId183" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1349" xr:uid="{1B1970F9-5099-4A7A-BE44-3842C4837D79}"/>
-    <hyperlink ref="B97" r:id="rId184" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1349" xr:uid="{AAF4D7A6-2992-4E7C-81B6-9F4A60C92F98}"/>
-    <hyperlink ref="A98" r:id="rId185" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1299" xr:uid="{5381CAAE-B67A-4645-B719-0AD3C4532B1B}"/>
-    <hyperlink ref="B98" r:id="rId186" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1299" xr:uid="{C80702FD-BA1D-469D-AD37-610137A2D9F1}"/>
-    <hyperlink ref="A99" r:id="rId187" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1309" xr:uid="{7AE8274C-6B0D-43F0-8A26-3EEF45914C27}"/>
-    <hyperlink ref="B99" r:id="rId188" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1309" xr:uid="{160B9966-DB5C-4FA8-B954-3A99F40DBD04}"/>
-    <hyperlink ref="A100" r:id="rId189" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1408" xr:uid="{8B4553BD-7B98-4C65-B56A-7A80F57380D3}"/>
-    <hyperlink ref="B100" r:id="rId190" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1408" xr:uid="{DF2933BF-3598-4C87-9F42-7C2A2E9BA0C5}"/>
-    <hyperlink ref="A101" r:id="rId191" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26008" xr:uid="{32D44107-7845-4601-BC1F-E1DA8833C244}"/>
-    <hyperlink ref="B101" r:id="rId192" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26008" xr:uid="{4EC75652-0EFF-436A-85B5-98C1F636B1D2}"/>
-    <hyperlink ref="A102" r:id="rId193" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26048" xr:uid="{BBEF85AE-B73B-478B-8914-CE4D5C1646C8}"/>
-    <hyperlink ref="B102" r:id="rId194" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26048" xr:uid="{94C1115B-CBF0-4F32-AE07-BE4EEFF128E8}"/>
-    <hyperlink ref="A103" r:id="rId195" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26023" xr:uid="{B034A6D3-2661-4727-BF46-60F5E4B60197}"/>
-    <hyperlink ref="A104" r:id="rId196" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26029" xr:uid="{5C2BA9EA-8C10-4817-9505-8ECC81FC7A75}"/>
-    <hyperlink ref="A105" r:id="rId197" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26028" xr:uid="{34176B0E-759D-463A-86C0-5B674122B67A}"/>
-    <hyperlink ref="B103" r:id="rId198" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26023" xr:uid="{5733424C-F6BA-418D-9BAF-F6A7B60A3F5D}"/>
-    <hyperlink ref="B104" r:id="rId199" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26029" xr:uid="{BD38727A-0DEB-4B7C-BD27-23DF5551E541}"/>
-    <hyperlink ref="B105" r:id="rId200" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26028" xr:uid="{FF3B6480-F799-463A-AE6B-C8AF7C503D6F}"/>
+    <hyperlink ref="A67" r:id="rId135" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28639" xr:uid="{A6DF6565-64AB-47BA-B80E-BC2064DB426C}"/>
+    <hyperlink ref="B67" r:id="rId136" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28639" xr:uid="{564D9AD1-5BB6-4075-A552-246C76BC9348}"/>
+    <hyperlink ref="A68" r:id="rId137" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120028" xr:uid="{D4EAF78D-4FB8-4FA1-84F8-007E59F27DC3}"/>
+    <hyperlink ref="B68" r:id="rId138" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120028" xr:uid="{E5E6FF95-3C3E-4102-8E0F-904DC2CBC0A9}"/>
+    <hyperlink ref="A69" r:id="rId139" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120026" xr:uid="{D7528555-A43D-4EC1-98E8-9FEC1701FB53}"/>
+    <hyperlink ref="B69" r:id="rId140" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120026" xr:uid="{C2A26607-F9D0-4783-BC99-44A054246329}"/>
+    <hyperlink ref="A70" r:id="rId141" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30020" xr:uid="{187DA645-89D5-46C8-9BDF-05F10D1E3661}"/>
+    <hyperlink ref="B70" r:id="rId142" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30020" xr:uid="{714330C8-85FE-4A2C-8B8E-1BDDCEA6120C}"/>
+    <hyperlink ref="A71" r:id="rId143" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30030" xr:uid="{87C482AC-ECF9-4A2E-AD3F-31CE99494463}"/>
+    <hyperlink ref="B71" r:id="rId144" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30030" xr:uid="{914B800E-3ED1-4E54-94EE-ADEDE94F0E11}"/>
+    <hyperlink ref="A72" r:id="rId145" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30010" xr:uid="{D4B37956-8127-4577-B45C-C64F2388B439}"/>
+    <hyperlink ref="B72" r:id="rId146" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30010" xr:uid="{94B86D50-C2A1-4779-8561-015635FB270B}"/>
+    <hyperlink ref="A73" r:id="rId147" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30800" xr:uid="{D59BC1A2-CC8E-454A-8698-03E8712B7E5E}"/>
+    <hyperlink ref="B73" r:id="rId148" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30800" xr:uid="{B153B5F5-67DA-4B8D-89B8-575A7494F022}"/>
+    <hyperlink ref="A74" r:id="rId149" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130622" xr:uid="{10AF434A-5A5B-4B6D-A935-DDBC92756E44}"/>
+    <hyperlink ref="B74" r:id="rId150" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130622" xr:uid="{B47D91AE-BD21-477C-A81D-9447DD9FD1DB}"/>
+    <hyperlink ref="A75" r:id="rId151" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130624" xr:uid="{C2E82DC2-6E16-4193-8DA4-0302EEB80AFC}"/>
+    <hyperlink ref="B75" r:id="rId152" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130624" xr:uid="{D7503810-CAAA-4AF1-BB4D-222F96FD3C8C}"/>
+    <hyperlink ref="A76" r:id="rId153" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130626" xr:uid="{139AE52C-D29E-4766-A4DC-AB83CBE1897C}"/>
+    <hyperlink ref="B76" r:id="rId154" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130626" xr:uid="{B0B04637-014C-4162-BC4A-C7A25E776504}"/>
+    <hyperlink ref="A77" r:id="rId155" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130638" xr:uid="{9DDABD0F-9D8C-4FDC-B0D8-EFB35E2B0D18}"/>
+    <hyperlink ref="B77" r:id="rId156" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130638" xr:uid="{B8CCBABD-0384-4390-95FF-5A7F13C13C9D}"/>
+    <hyperlink ref="A78" r:id="rId157" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131894" xr:uid="{8AA43B9E-F0F9-44B8-A9CE-46DFA7B5E49B}"/>
+    <hyperlink ref="B78" r:id="rId158" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131894" xr:uid="{B87D9DAC-4591-4197-B919-559F23D5EB23}"/>
+    <hyperlink ref="A79" r:id="rId159" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120009" xr:uid="{AA33ACD2-81DB-439D-A709-718B1F73A658}"/>
+    <hyperlink ref="B79" r:id="rId160" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=120009" xr:uid="{AE12DB66-32D6-40CC-833F-FD9632F2A308}"/>
+    <hyperlink ref="A80" r:id="rId161" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130746" xr:uid="{358135B3-750E-46EF-8299-6465B2CC98DB}"/>
+    <hyperlink ref="B80" r:id="rId162" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130746" xr:uid="{8CE019D3-B21E-4D21-8D8C-A0A934A63215}"/>
+    <hyperlink ref="A81" r:id="rId163" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130694" xr:uid="{CE5F1677-C1EE-4249-9D0A-C37F35EA43DC}"/>
+    <hyperlink ref="B81" r:id="rId164" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130694" xr:uid="{A50B1808-D999-4F7A-8088-A057F6BF6682}"/>
+    <hyperlink ref="A82" r:id="rId165" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130696" xr:uid="{76B519D9-FF32-437D-81E0-40A4EE412E1C}"/>
+    <hyperlink ref="B82" r:id="rId166" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130696" xr:uid="{0C170570-0324-425F-AA07-CD0246051273}"/>
+    <hyperlink ref="A83" r:id="rId167" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=10005" xr:uid="{AE8957B0-F1D7-415C-8169-B66C3945D916}"/>
+    <hyperlink ref="B83" r:id="rId168" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=10005" xr:uid="{1B8A52FF-371D-4FAC-A2F9-04F3D18FF260}"/>
+    <hyperlink ref="A84" r:id="rId169" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28711" xr:uid="{2690E836-988A-4372-B99B-7889D853892B}"/>
+    <hyperlink ref="B84" r:id="rId170" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=28711" xr:uid="{5CDC7F4C-927A-4EFC-9C8E-6BE36004AC41}"/>
+    <hyperlink ref="A85" r:id="rId171" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=6152" xr:uid="{6EA82C35-A778-46A0-BE73-4660DABB0F2F}"/>
+    <hyperlink ref="B85" r:id="rId172" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=6152" xr:uid="{DACE0D11-344F-48BD-B301-3DDDCFAD0BE7}"/>
+    <hyperlink ref="A86" r:id="rId173" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=22127" xr:uid="{34AA4CDC-D9E3-4B91-A899-14EBAEBE6974}"/>
+    <hyperlink ref="B86" r:id="rId174" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=22127" xr:uid="{925EBE6E-77EB-4704-9234-51BA92842181}"/>
+    <hyperlink ref="A87" r:id="rId175" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130736" xr:uid="{DC01FAD8-D67B-4DF9-BA9E-08F8660B86C5}"/>
+    <hyperlink ref="B87" r:id="rId176" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130736" xr:uid="{7FDEB191-1124-44DF-95B9-414DC80306F3}"/>
+    <hyperlink ref="A88" r:id="rId177" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131638" xr:uid="{F9EECC1E-0765-4464-BCF3-46ECE8F826A0}"/>
+    <hyperlink ref="B88" r:id="rId178" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131638" xr:uid="{7C6C5364-30C4-41AB-A53F-A093B05B2C4B}"/>
+    <hyperlink ref="A89" r:id="rId179" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=40006" xr:uid="{0900A83A-4B0C-437B-B424-032BC21BA878}"/>
+    <hyperlink ref="B89" r:id="rId180" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=40006" xr:uid="{1DC74B42-3285-4706-9133-6712CC80EC3D}"/>
+    <hyperlink ref="A90" r:id="rId181" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1369" xr:uid="{906B13B7-A89A-40F0-936A-821ACF2DF5A3}"/>
+    <hyperlink ref="B90" r:id="rId182" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1369" xr:uid="{B986659C-6CC9-40E3-B455-E75275097660}"/>
+    <hyperlink ref="A91" r:id="rId183" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1349" xr:uid="{1B1970F9-5099-4A7A-BE44-3842C4837D79}"/>
+    <hyperlink ref="B91" r:id="rId184" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1349" xr:uid="{AAF4D7A6-2992-4E7C-81B6-9F4A60C92F98}"/>
+    <hyperlink ref="A92" r:id="rId185" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1299" xr:uid="{5381CAAE-B67A-4645-B719-0AD3C4532B1B}"/>
+    <hyperlink ref="B92" r:id="rId186" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1299" xr:uid="{C80702FD-BA1D-469D-AD37-610137A2D9F1}"/>
+    <hyperlink ref="A93" r:id="rId187" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1309" xr:uid="{7AE8274C-6B0D-43F0-8A26-3EEF45914C27}"/>
+    <hyperlink ref="B93" r:id="rId188" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1309" xr:uid="{160B9966-DB5C-4FA8-B954-3A99F40DBD04}"/>
+    <hyperlink ref="A94" r:id="rId189" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1408" xr:uid="{8B4553BD-7B98-4C65-B56A-7A80F57380D3}"/>
+    <hyperlink ref="B94" r:id="rId190" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=1408" xr:uid="{DF2933BF-3598-4C87-9F42-7C2A2E9BA0C5}"/>
+    <hyperlink ref="A95" r:id="rId191" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26008" xr:uid="{32D44107-7845-4601-BC1F-E1DA8833C244}"/>
+    <hyperlink ref="B95" r:id="rId192" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26008" xr:uid="{4EC75652-0EFF-436A-85B5-98C1F636B1D2}"/>
+    <hyperlink ref="A96" r:id="rId193" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26048" xr:uid="{BBEF85AE-B73B-478B-8914-CE4D5C1646C8}"/>
+    <hyperlink ref="B96" r:id="rId194" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26048" xr:uid="{94C1115B-CBF0-4F32-AE07-BE4EEFF128E8}"/>
+    <hyperlink ref="A97" r:id="rId195" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26023" xr:uid="{B034A6D3-2661-4727-BF46-60F5E4B60197}"/>
+    <hyperlink ref="A98" r:id="rId196" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26029" xr:uid="{5C2BA9EA-8C10-4817-9505-8ECC81FC7A75}"/>
+    <hyperlink ref="A99" r:id="rId197" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26028" xr:uid="{34176B0E-759D-463A-86C0-5B674122B67A}"/>
+    <hyperlink ref="B97" r:id="rId198" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26023" xr:uid="{5733424C-F6BA-418D-9BAF-F6A7B60A3F5D}"/>
+    <hyperlink ref="B98" r:id="rId199" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26029" xr:uid="{BD38727A-0DEB-4B7C-BD27-23DF5551E541}"/>
+    <hyperlink ref="B99" r:id="rId200" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=26028" xr:uid="{FF3B6480-F799-463A-AE6B-C8AF7C503D6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/features by category in biobank.xlsx
+++ b/features by category in biobank.xlsx
@@ -1,32 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiha\Documents\GitHub\ML-Endo-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B17060-29D6-4100-88BD-6011E5496C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E3197F-D7E6-47B4-BD61-F1A8A0A4DF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet3!$A$1:$A$7</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet3!$B$1:$B$7</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet3!$A$1:$A$7</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet3!$B$1:$B$7</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet3!$A$1:$A$7</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet3!$B$1:$B$7</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet3!$A$1:$A$7</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet3!$B$1:$B$7</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="119">
   <si>
     <t>probably male=1 female=0</t>
   </si>
@@ -362,6 +384,27 @@
   </si>
   <si>
     <t>Vitamin E</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Pain indicators</t>
+  </si>
+  <si>
+    <t>Diet</t>
+  </si>
+  <si>
+    <t>Menstruation</t>
+  </si>
+  <si>
+    <t>Mental health</t>
+  </si>
+  <si>
+    <t>Related illnesses</t>
+  </si>
+  <si>
+    <t>infertility</t>
   </si>
 </sst>
 </file>
@@ -437,10 +480,1695 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Features by Subject</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32512454811073144"/>
+          <c:y val="0.15312777585402204"/>
+          <c:w val="0.33088322686079336"/>
+          <c:h val="0.5029678113849535"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-IL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$1:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>General</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pain indicators</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>infertility</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Diet</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Menstruation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mental health</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Related illnesses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7314-4FC7-A892-4367680DE8F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="55"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13929618768328444"/>
+          <c:y val="0.67375604101112596"/>
+          <c:w val="0.67573256055603015"/>
+          <c:h val="0.27366269703858714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features by Subject</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IL" sz="1400">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{615B9932-C2B1-4B8B-9B94-B6B47AE04965}">
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="1">
+        <cx:catScaling gapWidth="0.0599999987"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AF8E90-5BBA-761C-1A75-F73005862AB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BC7833-CD39-9EC3-6B34-530A914D45A5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2956560" y="4339590"/>
+              <a:ext cx="4785360" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IL" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,16 +2185,16 @@
         <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="FF99CC"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="954F72"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="DB92F2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="47C1B0"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -702,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1625,7 +3353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29356CCF-2910-4F95-85DD-48185113FA8A}">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A95" workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
@@ -2647,4 +4375,86 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334E8625-333A-406B-939F-407C45FCBFE1}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>SUM(B1:B7)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/features by category in biobank.xlsx
+++ b/features by category in biobank.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiha\Documents\GitHub\ML-Endo-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E3197F-D7E6-47B4-BD61-F1A8A0A4DF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965866C3-672A-4505-B484-69A3499436CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v2.0" hidden="1">Sheet3!$A$1:$A$7</definedName>
     <definedName name="_xlchart.v2.1" hidden="1">Sheet3!$B$1:$B$7</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet3!$A$1:$A$7</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet3!$B$1:$B$7</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet3!$A$1:$A$7</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet3!$B$1:$B$7</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet3!$A$1:$A$7</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet3!$B$1:$B$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="148">
   <si>
     <t>probably male=1 female=0</t>
   </si>
@@ -404,7 +399,94 @@
     <t>Related illnesses</t>
   </si>
   <si>
-    <t>infertility</t>
+    <t>Infertility</t>
+  </si>
+  <si>
+    <t>Date N83 first reported (noninflammatory disorders of ovary, fallopian tube and broad ligament)</t>
+  </si>
+  <si>
+    <t>ovaian cysts</t>
+  </si>
+  <si>
+    <t>Date N70 first reported (salpingitis and oophoritis)</t>
+  </si>
+  <si>
+    <t>Date N73 first reported (other female pelvic inflammatory diseases)</t>
+  </si>
+  <si>
+    <t>Date N92 first reported (excessive, frequent and irregular menstruation)</t>
+  </si>
+  <si>
+    <t>pcos</t>
+  </si>
+  <si>
+    <t>Date K51 first reported (ulcerative colitis)</t>
+  </si>
+  <si>
+    <t>Date K50 first reported (crohn's disease [regional enteritis])</t>
+  </si>
+  <si>
+    <t>Age at menopause (last menstrual period)</t>
+  </si>
+  <si>
+    <t>Stomach/abdominal pain for 3+ months</t>
+  </si>
+  <si>
+    <t>Date K58 first reported (irritable bowel syndrome)</t>
+  </si>
+  <si>
+    <t>Date K59 first reported (other functional intestinal disorders)</t>
+  </si>
+  <si>
+    <t>Date K52 first reported (other non-infective gastro-enteritis and colitis)</t>
+  </si>
+  <si>
+    <t>Stools looser when abdominal discomfort/pain started</t>
+  </si>
+  <si>
+    <t>Age at cancer diagnosis</t>
+  </si>
+  <si>
+    <t>Age diabetes diagnosed</t>
+  </si>
+  <si>
+    <t>Age at first live birth</t>
+  </si>
+  <si>
+    <t>Age at last live birth</t>
+  </si>
+  <si>
+    <t>Age at hysterectomy</t>
+  </si>
+  <si>
+    <t>Age started oral contraceptive pill</t>
+  </si>
+  <si>
+    <t>Age when last used oral contraceptive pill</t>
+  </si>
+  <si>
+    <t>Degree bothered by menstrual cramps or other problems with period in the last 3 months</t>
+  </si>
+  <si>
+    <t>Date N81 first reported (female genital prolapse)</t>
+  </si>
+  <si>
+    <t>Date N84 first reported (polyp of female genital tract)</t>
+  </si>
+  <si>
+    <t>Date O70 first reported (perineal laceration during delivery)</t>
+  </si>
+  <si>
+    <t>Date K35 first reported (acute appendicitis)</t>
+  </si>
+  <si>
+    <t>Date N39 first reported (other disorders of urinary system)</t>
+  </si>
+  <si>
+    <t>Date M54 first reported (dorsalgia)</t>
+  </si>
+  <si>
+    <t>Date O00 first reported (ectopic pregnancy)</t>
   </si>
 </sst>
 </file>
@@ -581,6 +663,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8865-4362-8395-014E3CD16A7E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -596,6 +683,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8865-4362-8395-014E3CD16A7E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -611,6 +703,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8865-4362-8395-014E3CD16A7E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -626,6 +723,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8865-4362-8395-014E3CD16A7E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -641,6 +743,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8865-4362-8395-014E3CD16A7E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -656,6 +763,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8865-4362-8395-014E3CD16A7E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -673,6 +785,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-8865-4362-8395-014E3CD16A7E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -724,7 +841,7 @@
                   <c:v>Pain indicators</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>infertility</c:v>
+                  <c:v>Infertility</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Diet</c:v>
@@ -930,7 +1047,7 @@
           <cx:dataId val="0"/>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="1">
+      <cx:axis id="0">
         <cx:catScaling gapWidth="0.0599999987"/>
         <cx:tickLabels/>
       </cx:axis>
@@ -2430,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3353,7 +3470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29356CCF-2910-4F95-85DD-48185113FA8A}">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
@@ -4381,8 +4498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334E8625-333A-406B-939F-407C45FCBFE1}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A26" zoomScale="191" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4457,4 +4574,389 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEABFBC-1ADA-41AD-A69D-3038854FE2D2}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="2">
+        <v>132128</v>
+      </c>
+      <c r="C1" s="2">
+        <v>132129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="2">
+        <v>132106</v>
+      </c>
+      <c r="C2" s="2">
+        <v>132107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2">
+        <v>132112</v>
+      </c>
+      <c r="C3" s="2">
+        <v>132113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="2">
+        <v>132146</v>
+      </c>
+      <c r="C4" s="2">
+        <v>132147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2">
+        <v>130736</v>
+      </c>
+      <c r="C5" s="2">
+        <v>130737</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="2">
+        <v>131628</v>
+      </c>
+      <c r="C6" s="2">
+        <v>131629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="2">
+        <v>131626</v>
+      </c>
+      <c r="C7" s="2">
+        <v>131627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="2">
+        <v>131638</v>
+      </c>
+      <c r="C10" s="2">
+        <v>131639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="2">
+        <v>131640</v>
+      </c>
+      <c r="C11" s="2">
+        <v>131641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="2">
+        <v>131630</v>
+      </c>
+      <c r="C12" s="2">
+        <v>131631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="2">
+        <v>21031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2">
+        <v>21045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="2">
+        <v>40008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="2">
+        <v>132124</v>
+      </c>
+      <c r="C23" s="2">
+        <v>132125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="2">
+        <v>132130</v>
+      </c>
+      <c r="C24" s="2">
+        <v>132131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="2">
+        <v>132264</v>
+      </c>
+      <c r="C25" s="1">
+        <v>132265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="2">
+        <v>131604</v>
+      </c>
+      <c r="C26" s="2">
+        <v>131605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="2">
+        <v>132070</v>
+      </c>
+      <c r="C27" s="2">
+        <v>132071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="2">
+        <v>131928</v>
+      </c>
+      <c r="C28" s="2">
+        <v>131929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="2">
+        <v>132162</v>
+      </c>
+      <c r="C29" s="2">
+        <v>132163</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132128" xr:uid="{339AD9D6-B640-4D34-8B54-81C925484ECD}"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132128" xr:uid="{11914E82-8E68-4842-9CF0-66E79C046AD4}"/>
+    <hyperlink ref="C1" r:id="rId3" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132129" xr:uid="{502A20D4-A022-4DC4-A786-DC2306AA721C}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132106" xr:uid="{8C377CF2-443E-4E9D-B5DD-9D865FB325EF}"/>
+    <hyperlink ref="B2" r:id="rId5" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132106" xr:uid="{2D1ED340-BCD3-4E49-A8F2-75DB18C0AC02}"/>
+    <hyperlink ref="C2" r:id="rId6" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132107" xr:uid="{FEBDC0FA-10DB-4696-8062-D75671F9C8E4}"/>
+    <hyperlink ref="A3" r:id="rId7" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132112" xr:uid="{AFA58F7C-A2D3-4915-B538-A6A1C47B1590}"/>
+    <hyperlink ref="B3" r:id="rId8" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132112" xr:uid="{4DDA5394-46B5-4B63-969E-EE4DAA6B5589}"/>
+    <hyperlink ref="C3" r:id="rId9" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132113" xr:uid="{0195CD42-073D-4BCE-BD28-2C0804383EDC}"/>
+    <hyperlink ref="A4" r:id="rId10" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132146" xr:uid="{08EC6B6E-FEE4-4803-AD48-9B2ED6BDC18F}"/>
+    <hyperlink ref="B4" r:id="rId11" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132146" xr:uid="{7DC2EEA5-E0B5-4BCD-AEF1-293475BDE91F}"/>
+    <hyperlink ref="C4" r:id="rId12" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132147" xr:uid="{96185834-DD10-4EFC-A594-476E19E1D491}"/>
+    <hyperlink ref="A5" r:id="rId13" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130736" xr:uid="{5BFE22BB-7B4D-42C7-ACEF-4610B8CBB82D}"/>
+    <hyperlink ref="B5" r:id="rId14" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130736" xr:uid="{6CBCE464-E24B-4180-B1C2-6BC7D75C617E}"/>
+    <hyperlink ref="C5" r:id="rId15" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=130737" xr:uid="{0760FAD9-F0E9-413F-B420-5B30DDAE4D60}"/>
+    <hyperlink ref="A6" r:id="rId16" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131628" xr:uid="{32217825-9B67-4A2D-BE6E-B621BC030A52}"/>
+    <hyperlink ref="B6" r:id="rId17" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131628" xr:uid="{0EDACC84-CC28-46ED-A5B4-FBB823C0A541}"/>
+    <hyperlink ref="C6" r:id="rId18" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131629" xr:uid="{9370F268-5516-48D2-A3E6-F276A920EF8D}"/>
+    <hyperlink ref="A7" r:id="rId19" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131626" xr:uid="{59B0358A-05AD-42BD-B75E-7CC668433300}"/>
+    <hyperlink ref="B7" r:id="rId20" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131626" xr:uid="{401CEB62-72B7-43D8-85D7-E89A76365535}"/>
+    <hyperlink ref="C7" r:id="rId21" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131627" xr:uid="{CB877326-DD52-4F8B-819C-EEF6D75777C1}"/>
+    <hyperlink ref="A8" r:id="rId22" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3581" xr:uid="{E83C7306-3544-4225-BA40-B023F39CA919}"/>
+    <hyperlink ref="B8" r:id="rId23" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3581" xr:uid="{579F1A8C-A311-426C-979F-D2A9C610C732}"/>
+    <hyperlink ref="A9" r:id="rId24" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3741" xr:uid="{8F369CC9-8AB8-47E6-B9B1-8582FFCAD2E2}"/>
+    <hyperlink ref="B9" r:id="rId25" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=3741" xr:uid="{86B1FE13-D8FA-47ED-A1B3-754DA029CA5C}"/>
+    <hyperlink ref="A10" r:id="rId26" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131638" xr:uid="{2874ABB0-DCE4-443B-A187-43BFEE089044}"/>
+    <hyperlink ref="B10" r:id="rId27" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131638" xr:uid="{C60DAB47-52FB-4509-A507-B4E1F44366B0}"/>
+    <hyperlink ref="C10" r:id="rId28" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131639" xr:uid="{61A7FFD9-6514-4816-9ABB-7E3A70922822}"/>
+    <hyperlink ref="A11" r:id="rId29" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131640" xr:uid="{4473548C-AC23-45CF-9117-B5A9AB201F0F}"/>
+    <hyperlink ref="B11" r:id="rId30" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131640" xr:uid="{63A70CA5-001A-4955-9B20-098F59EC1FDE}"/>
+    <hyperlink ref="C11" r:id="rId31" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131641" xr:uid="{88C1608A-653B-4E05-BB3A-E2818E28590D}"/>
+    <hyperlink ref="A12" r:id="rId32" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131630" xr:uid="{802FD9AA-ED61-41FE-A82B-B10E20FC6849}"/>
+    <hyperlink ref="B12" r:id="rId33" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131630" xr:uid="{670D9710-3C72-4251-9293-A398578B4560}"/>
+    <hyperlink ref="C12" r:id="rId34" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131631" xr:uid="{C3452085-99F0-4EB2-92EC-DBA19B330159}"/>
+    <hyperlink ref="A13" r:id="rId35" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21031" xr:uid="{38533DBB-3169-4F6C-961B-607B57447EFF}"/>
+    <hyperlink ref="B13" r:id="rId36" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21031" xr:uid="{B9AB5664-B361-4274-B16A-E47C3CECA331}"/>
+    <hyperlink ref="A14" r:id="rId37" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21045" xr:uid="{751C9625-9959-4554-B34B-1C3596379AEF}"/>
+    <hyperlink ref="B14" r:id="rId38" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21045" xr:uid="{1950C200-1701-4DB9-A3DA-ACA7AD3CCA5D}"/>
+    <hyperlink ref="A15" r:id="rId39" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=40008" xr:uid="{C99793BF-FC8F-4049-8E4C-6420B930743A}"/>
+    <hyperlink ref="B15" r:id="rId40" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=40008" xr:uid="{0BAD640F-E0F9-4580-99DF-457406A479D6}"/>
+    <hyperlink ref="A16" r:id="rId41" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2976" xr:uid="{45B571FC-C81C-42A2-A1A3-6610D49C2FD7}"/>
+    <hyperlink ref="B16" r:id="rId42" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2976" xr:uid="{796063E1-1EBB-474B-B286-ECAD6D9BECE5}"/>
+    <hyperlink ref="A17" r:id="rId43" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2754" xr:uid="{8ECAC48E-DE45-4B8D-99A5-85E97F7DC012}"/>
+    <hyperlink ref="B17" r:id="rId44" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2754" xr:uid="{76A7E731-58C7-4DA9-8B50-9B45EFAC067F}"/>
+    <hyperlink ref="A18" r:id="rId45" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2764" xr:uid="{CA24ACAF-6C42-48B8-A40A-AE16BCD3DB1E}"/>
+    <hyperlink ref="B18" r:id="rId46" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2764" xr:uid="{9C96E079-80FA-405E-A88B-EC6D51E9BF22}"/>
+    <hyperlink ref="A19" r:id="rId47" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2824" xr:uid="{D95DA32D-0476-43C5-8341-01DAB6B2282D}"/>
+    <hyperlink ref="B19" r:id="rId48" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2824" xr:uid="{7D77761A-4AB3-4F9C-B4D1-08FCCEFB0258}"/>
+    <hyperlink ref="A20" r:id="rId49" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2794" xr:uid="{C3A1B92D-6256-4CA6-B20D-B12BAF2DBD97}"/>
+    <hyperlink ref="B20" r:id="rId50" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2794" xr:uid="{C35CC60D-7971-48B7-A8E4-795363C7684A}"/>
+    <hyperlink ref="A21" r:id="rId51" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2804" xr:uid="{C978D68D-548C-44B4-812A-E2346DB07B0B}"/>
+    <hyperlink ref="B21" r:id="rId52" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=2804" xr:uid="{F8CEF25B-8493-43D7-A6D6-8099A2764989}"/>
+    <hyperlink ref="A22" r:id="rId53" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21050" xr:uid="{04F20DDC-FC02-4EA4-AD14-B07C7D63A876}"/>
+    <hyperlink ref="B22" r:id="rId54" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=21050" xr:uid="{64B7AF02-701A-46FE-B2C4-A17403012D9B}"/>
+    <hyperlink ref="A23" r:id="rId55" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132124" xr:uid="{BB1A57A5-D094-4512-B110-A8B78E88C37E}"/>
+    <hyperlink ref="B23" r:id="rId56" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132124" xr:uid="{861B737D-941D-475A-977B-7E756121A11A}"/>
+    <hyperlink ref="C23" r:id="rId57" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132125" xr:uid="{9BA6BC72-ED3C-42B3-B1B5-07AB94DAB1F5}"/>
+    <hyperlink ref="A24" r:id="rId58" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132130" xr:uid="{D68F00F1-367B-4E4A-9D64-7BB934142BB2}"/>
+    <hyperlink ref="B24" r:id="rId59" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132130" xr:uid="{FB4D35F4-89F7-41B3-8A31-58234AA42AF3}"/>
+    <hyperlink ref="C24" r:id="rId60" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132131" xr:uid="{A68366A6-6FBC-4A37-A7CE-8738BAEC33ED}"/>
+    <hyperlink ref="A25" r:id="rId61" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132264" xr:uid="{513B252F-51D8-4F6A-9158-E305118848B8}"/>
+    <hyperlink ref="B25" r:id="rId62" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132264" xr:uid="{B0FA852E-8986-4251-A44F-10C3E44C44A9}"/>
+    <hyperlink ref="C25" r:id="rId63" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132265" xr:uid="{24A391FE-8635-4CC5-8188-F7F3B25561A8}"/>
+    <hyperlink ref="A26" r:id="rId64" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131604" xr:uid="{E76E5846-29F8-4E9E-B2F8-428F90D95CC7}"/>
+    <hyperlink ref="B26" r:id="rId65" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131604" xr:uid="{479A2A4C-9747-481B-A04D-41BF7B0C1ED1}"/>
+    <hyperlink ref="C26" r:id="rId66" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131605" xr:uid="{7125DEEF-CB31-4106-87CF-F0D92F2899AC}"/>
+    <hyperlink ref="A27" r:id="rId67" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132070" xr:uid="{71A295D7-87AF-4F40-AE37-D2ED4325C9BC}"/>
+    <hyperlink ref="C27" r:id="rId68" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132071" xr:uid="{001C7849-2826-4BFB-8D4D-2BC6D35EFCE7}"/>
+    <hyperlink ref="B27" r:id="rId69" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132070" xr:uid="{2F2E775E-BBE6-4A27-9991-273B7E5E9AED}"/>
+    <hyperlink ref="A28" r:id="rId70" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131928" xr:uid="{3CD5EBA3-9B46-46F9-8B8C-A37C27CDDAFC}"/>
+    <hyperlink ref="B28" r:id="rId71" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131928" xr:uid="{EE4AC76A-FD31-4BBA-A248-505A5261CF91}"/>
+    <hyperlink ref="C28" r:id="rId72" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=131929" xr:uid="{21847B2D-76E3-48DF-A005-234A04A7660D}"/>
+    <hyperlink ref="A29" r:id="rId73" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132162" xr:uid="{4E923663-6843-48B6-9C88-5F4EEC0B3D0D}"/>
+    <hyperlink ref="C29" r:id="rId74" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132163" xr:uid="{B2C9D23F-8800-4B82-A02F-280DE14E5E25}"/>
+    <hyperlink ref="B29" r:id="rId75" display="https://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=132162" xr:uid="{A42D4AC6-1199-483E-B69E-51F54FBFEB02}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>